--- a/data/inter_iit_data/distance_matrix_pickup_to_delivery_bangalore_dispatch_address_finals.xlsx
+++ b/data/inter_iit_data/distance_matrix_pickup_to_delivery_bangalore_dispatch_address_finals.xlsx
@@ -1091,7 +1091,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3623</v>
+        <v>2934</v>
       </c>
       <c r="B2" t="n">
         <v>1533</v>
@@ -1112,7 +1112,7 @@
         <v>1165</v>
       </c>
       <c r="H2" t="n">
-        <v>1744</v>
+        <v>1666</v>
       </c>
       <c r="I2" t="n">
         <v>3343</v>
@@ -1172,7 +1172,7 @@
         <v>1582</v>
       </c>
       <c r="AB2" t="n">
-        <v>6756</v>
+        <v>6771</v>
       </c>
       <c r="AC2" t="n">
         <v>789</v>
@@ -1193,7 +1193,7 @@
         <v>813</v>
       </c>
       <c r="AI2" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>7602</v>
       </c>
       <c r="BT2" t="n">
-        <v>7604</v>
+        <v>7637</v>
       </c>
       <c r="BU2" t="n">
-        <v>8678</v>
+        <v>8721</v>
       </c>
       <c r="BV2" t="n">
         <v>8266</v>
@@ -1424,7 +1424,7 @@
         <v>8819</v>
       </c>
       <c r="DH2" t="n">
-        <v>9034</v>
+        <v>8993</v>
       </c>
       <c r="DI2" t="n">
         <v>9006</v>
@@ -1481,7 +1481,7 @@
         <v>8683</v>
       </c>
       <c r="EA2" t="n">
-        <v>9034</v>
+        <v>8993</v>
       </c>
       <c r="EB2" t="n">
         <v>11917</v>
@@ -1541,7 +1541,7 @@
         <v>10554</v>
       </c>
       <c r="EU2" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="EV2" t="n">
         <v>22684</v>
@@ -1550,7 +1550,7 @@
         <v>23028</v>
       </c>
       <c r="EX2" t="n">
-        <v>21518</v>
+        <v>23135</v>
       </c>
       <c r="EY2" t="n">
         <v>23849</v>
@@ -1559,10 +1559,10 @@
         <v>23530</v>
       </c>
       <c r="FA2" t="n">
-        <v>19936</v>
+        <v>19933</v>
       </c>
       <c r="FB2" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="FC2" t="n">
         <v>22890</v>
@@ -1577,7 +1577,7 @@
         <v>24604</v>
       </c>
       <c r="FG2" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="FH2" t="n">
         <v>21210</v>
@@ -1586,7 +1586,7 @@
         <v>22890</v>
       </c>
       <c r="FJ2" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="FK2" t="n">
         <v>24604</v>
@@ -1610,7 +1610,7 @@
         <v>13261</v>
       </c>
       <c r="FR2" t="n">
-        <v>16732</v>
+        <v>16728</v>
       </c>
       <c r="FS2" t="n">
         <v>11345</v>
@@ -1673,81 +1673,81 @@
         <v>15380</v>
       </c>
       <c r="GM2" t="n">
-        <v>0</v>
+        <v>8422</v>
       </c>
       <c r="GN2" t="n">
-        <v>0</v>
+        <v>14626</v>
       </c>
       <c r="GO2" t="n">
-        <v>1807</v>
+        <v>14344</v>
       </c>
       <c r="GP2" t="n">
-        <v>2931</v>
+        <v>14057</v>
       </c>
       <c r="GQ2" t="n">
-        <v>944</v>
+        <v>14050</v>
       </c>
       <c r="GR2" t="n">
-        <v>1162</v>
+        <v>13510</v>
       </c>
       <c r="GS2" t="n">
-        <v>8310</v>
+        <v>15888</v>
       </c>
       <c r="GT2" t="n">
-        <v>7726</v>
+        <v>13264</v>
       </c>
       <c r="GU2" t="n">
-        <v>5999</v>
+        <v>13898</v>
       </c>
       <c r="GV2" t="n">
-        <v>8537</v>
+        <v>14867</v>
       </c>
       <c r="GW2" t="n">
-        <v>7539</v>
+        <v>13261</v>
       </c>
       <c r="GX2" t="n">
-        <v>8038</v>
+        <v>14231</v>
       </c>
       <c r="GY2" t="n">
-        <v>12314</v>
+        <v>17590</v>
       </c>
       <c r="GZ2" t="n">
-        <v>11776</v>
+        <v>14007</v>
       </c>
       <c r="HA2" t="n">
-        <v>12583</v>
+        <v>13450</v>
       </c>
       <c r="HB2" t="n">
-        <v>10581</v>
+        <v>13213</v>
       </c>
       <c r="HC2" t="n">
-        <v>12256</v>
+        <v>13447</v>
       </c>
       <c r="HD2" t="n">
-        <v>11583</v>
+        <v>13831</v>
       </c>
       <c r="HE2" t="n">
-        <v>14344</v>
+        <v>18799</v>
       </c>
       <c r="HF2" t="n">
-        <v>14231</v>
+        <v>13490</v>
       </c>
       <c r="HG2" t="n">
-        <v>9034</v>
+        <v>10664</v>
       </c>
       <c r="HH2" t="n">
-        <v>13805</v>
+        <v>11812</v>
       </c>
       <c r="HI2" t="n">
-        <v>16946</v>
+        <v>15129</v>
       </c>
       <c r="HJ2" t="n">
-        <v>15951</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3623</v>
+        <v>2934</v>
       </c>
       <c r="B3" t="n">
         <v>1533</v>
@@ -1768,7 +1768,7 @@
         <v>1165</v>
       </c>
       <c r="H3" t="n">
-        <v>1744</v>
+        <v>1666</v>
       </c>
       <c r="I3" t="n">
         <v>3343</v>
@@ -1828,7 +1828,7 @@
         <v>1582</v>
       </c>
       <c r="AB3" t="n">
-        <v>6756</v>
+        <v>6771</v>
       </c>
       <c r="AC3" t="n">
         <v>789</v>
@@ -1849,7 +1849,7 @@
         <v>813</v>
       </c>
       <c r="AI3" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         <v>7602</v>
       </c>
       <c r="BT3" t="n">
-        <v>7604</v>
+        <v>7637</v>
       </c>
       <c r="BU3" t="n">
-        <v>8678</v>
+        <v>8721</v>
       </c>
       <c r="BV3" t="n">
         <v>8266</v>
@@ -2080,7 +2080,7 @@
         <v>8819</v>
       </c>
       <c r="DH3" t="n">
-        <v>9034</v>
+        <v>8993</v>
       </c>
       <c r="DI3" t="n">
         <v>9006</v>
@@ -2137,7 +2137,7 @@
         <v>8683</v>
       </c>
       <c r="EA3" t="n">
-        <v>9034</v>
+        <v>8993</v>
       </c>
       <c r="EB3" t="n">
         <v>11917</v>
@@ -2197,7 +2197,7 @@
         <v>10554</v>
       </c>
       <c r="EU3" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="EV3" t="n">
         <v>22684</v>
@@ -2206,7 +2206,7 @@
         <v>23028</v>
       </c>
       <c r="EX3" t="n">
-        <v>21518</v>
+        <v>23135</v>
       </c>
       <c r="EY3" t="n">
         <v>23849</v>
@@ -2215,10 +2215,10 @@
         <v>23530</v>
       </c>
       <c r="FA3" t="n">
-        <v>19936</v>
+        <v>19933</v>
       </c>
       <c r="FB3" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="FC3" t="n">
         <v>22890</v>
@@ -2233,7 +2233,7 @@
         <v>24604</v>
       </c>
       <c r="FG3" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="FH3" t="n">
         <v>21210</v>
@@ -2242,7 +2242,7 @@
         <v>22890</v>
       </c>
       <c r="FJ3" t="n">
-        <v>19822</v>
+        <v>19819</v>
       </c>
       <c r="FK3" t="n">
         <v>24604</v>
@@ -2266,7 +2266,7 @@
         <v>13261</v>
       </c>
       <c r="FR3" t="n">
-        <v>16732</v>
+        <v>16728</v>
       </c>
       <c r="FS3" t="n">
         <v>11345</v>
@@ -2329,76 +2329,76 @@
         <v>15380</v>
       </c>
       <c r="GM3" t="n">
-        <v>0</v>
+        <v>8422</v>
       </c>
       <c r="GN3" t="n">
-        <v>0</v>
+        <v>14626</v>
       </c>
       <c r="GO3" t="n">
-        <v>1807</v>
+        <v>14344</v>
       </c>
       <c r="GP3" t="n">
-        <v>2931</v>
+        <v>14057</v>
       </c>
       <c r="GQ3" t="n">
-        <v>944</v>
+        <v>14050</v>
       </c>
       <c r="GR3" t="n">
-        <v>1162</v>
+        <v>13510</v>
       </c>
       <c r="GS3" t="n">
-        <v>8310</v>
+        <v>15888</v>
       </c>
       <c r="GT3" t="n">
-        <v>7726</v>
+        <v>13264</v>
       </c>
       <c r="GU3" t="n">
-        <v>5999</v>
+        <v>13898</v>
       </c>
       <c r="GV3" t="n">
-        <v>8537</v>
+        <v>14867</v>
       </c>
       <c r="GW3" t="n">
-        <v>7539</v>
+        <v>13261</v>
       </c>
       <c r="GX3" t="n">
-        <v>8038</v>
+        <v>14231</v>
       </c>
       <c r="GY3" t="n">
-        <v>12314</v>
+        <v>17590</v>
       </c>
       <c r="GZ3" t="n">
-        <v>11776</v>
+        <v>14007</v>
       </c>
       <c r="HA3" t="n">
-        <v>12583</v>
+        <v>13450</v>
       </c>
       <c r="HB3" t="n">
-        <v>10581</v>
+        <v>13213</v>
       </c>
       <c r="HC3" t="n">
-        <v>12256</v>
+        <v>13447</v>
       </c>
       <c r="HD3" t="n">
-        <v>11583</v>
+        <v>13831</v>
       </c>
       <c r="HE3" t="n">
-        <v>14344</v>
+        <v>18799</v>
       </c>
       <c r="HF3" t="n">
-        <v>14231</v>
+        <v>13490</v>
       </c>
       <c r="HG3" t="n">
-        <v>9034</v>
+        <v>10664</v>
       </c>
       <c r="HH3" t="n">
-        <v>13805</v>
+        <v>11812</v>
       </c>
       <c r="HI3" t="n">
-        <v>16946</v>
+        <v>15129</v>
       </c>
       <c r="HJ3" t="n">
-        <v>15951</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="4">
@@ -2484,7 +2484,7 @@
         <v>323</v>
       </c>
       <c r="AB4" t="n">
-        <v>6934</v>
+        <v>7194</v>
       </c>
       <c r="AC4" t="n">
         <v>2342</v>
@@ -2616,10 +2616,10 @@
         <v>9054</v>
       </c>
       <c r="BT4" t="n">
-        <v>9056</v>
+        <v>9089</v>
       </c>
       <c r="BU4" t="n">
-        <v>10130</v>
+        <v>10173</v>
       </c>
       <c r="BV4" t="n">
         <v>9718</v>
@@ -2736,7 +2736,7 @@
         <v>10336</v>
       </c>
       <c r="DH4" t="n">
-        <v>10551</v>
+        <v>10510</v>
       </c>
       <c r="DI4" t="n">
         <v>10523</v>
@@ -2793,7 +2793,7 @@
         <v>9860</v>
       </c>
       <c r="EA4" t="n">
-        <v>10551</v>
+        <v>10510</v>
       </c>
       <c r="EB4" t="n">
         <v>13434</v>
@@ -2853,7 +2853,7 @@
         <v>12071</v>
       </c>
       <c r="EU4" t="n">
-        <v>21339</v>
+        <v>21336</v>
       </c>
       <c r="EV4" t="n">
         <v>24136</v>
@@ -2871,10 +2871,10 @@
         <v>24982</v>
       </c>
       <c r="FA4" t="n">
-        <v>21453</v>
+        <v>21450</v>
       </c>
       <c r="FB4" t="n">
-        <v>21339</v>
+        <v>21336</v>
       </c>
       <c r="FC4" t="n">
         <v>24342</v>
@@ -2889,16 +2889,16 @@
         <v>26056</v>
       </c>
       <c r="FG4" t="n">
-        <v>21339</v>
+        <v>21336</v>
       </c>
       <c r="FH4" t="n">
-        <v>19982</v>
+        <v>20002</v>
       </c>
       <c r="FI4" t="n">
         <v>24342</v>
       </c>
       <c r="FJ4" t="n">
-        <v>21339</v>
+        <v>21336</v>
       </c>
       <c r="FK4" t="n">
         <v>26056</v>
@@ -2922,7 +2922,7 @@
         <v>14713</v>
       </c>
       <c r="FR4" t="n">
-        <v>18249</v>
+        <v>18245</v>
       </c>
       <c r="FS4" t="n">
         <v>12797</v>
@@ -2985,76 +2985,76 @@
         <v>16832</v>
       </c>
       <c r="GM4" t="n">
-        <v>1699</v>
+        <v>9939</v>
       </c>
       <c r="GN4" t="n">
-        <v>1699</v>
+        <v>16078</v>
       </c>
       <c r="GO4" t="n">
-        <v>0</v>
+        <v>15796</v>
       </c>
       <c r="GP4" t="n">
-        <v>1219</v>
+        <v>15509</v>
       </c>
       <c r="GQ4" t="n">
-        <v>980</v>
+        <v>15502</v>
       </c>
       <c r="GR4" t="n">
-        <v>1534</v>
+        <v>15027</v>
       </c>
       <c r="GS4" t="n">
-        <v>9762</v>
+        <v>17340</v>
       </c>
       <c r="GT4" t="n">
-        <v>9178</v>
+        <v>14716</v>
       </c>
       <c r="GU4" t="n">
-        <v>7451</v>
+        <v>15350</v>
       </c>
       <c r="GV4" t="n">
-        <v>9989</v>
+        <v>16319</v>
       </c>
       <c r="GW4" t="n">
-        <v>8991</v>
+        <v>14713</v>
       </c>
       <c r="GX4" t="n">
-        <v>9490</v>
+        <v>15683</v>
       </c>
       <c r="GY4" t="n">
-        <v>13831</v>
+        <v>19042</v>
       </c>
       <c r="GZ4" t="n">
-        <v>13293</v>
+        <v>15459</v>
       </c>
       <c r="HA4" t="n">
-        <v>14100</v>
+        <v>14902</v>
       </c>
       <c r="HB4" t="n">
-        <v>12098</v>
+        <v>14665</v>
       </c>
       <c r="HC4" t="n">
-        <v>13773</v>
+        <v>14899</v>
       </c>
       <c r="HD4" t="n">
-        <v>13100</v>
+        <v>15283</v>
       </c>
       <c r="HE4" t="n">
-        <v>15796</v>
+        <v>20251</v>
       </c>
       <c r="HF4" t="n">
-        <v>15683</v>
+        <v>14942</v>
       </c>
       <c r="HG4" t="n">
-        <v>10551</v>
+        <v>12181</v>
       </c>
       <c r="HH4" t="n">
-        <v>15257</v>
+        <v>13264</v>
       </c>
       <c r="HI4" t="n">
-        <v>18398</v>
+        <v>16581</v>
       </c>
       <c r="HJ4" t="n">
-        <v>17403</v>
+        <v>15652</v>
       </c>
     </row>
     <row r="5">
@@ -3128,7 +3128,7 @@
         <v>3256</v>
       </c>
       <c r="X5" t="n">
-        <v>4760</v>
+        <v>3259</v>
       </c>
       <c r="Y5" t="n">
         <v>2109</v>
@@ -3140,7 +3140,7 @@
         <v>1386</v>
       </c>
       <c r="AB5" t="n">
-        <v>7377</v>
+        <v>7637</v>
       </c>
       <c r="AC5" t="n">
         <v>4014</v>
@@ -3173,7 +3173,7 @@
         <v>1219</v>
       </c>
       <c r="AM5" t="n">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="AN5" t="n">
         <v>1219</v>
@@ -3182,7 +3182,7 @@
         <v>2390</v>
       </c>
       <c r="AP5" t="n">
-        <v>1019</v>
+        <v>1089</v>
       </c>
       <c r="AQ5" t="n">
         <v>353</v>
@@ -3197,7 +3197,7 @@
         <v>3371</v>
       </c>
       <c r="AU5" t="n">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="AV5" t="n">
         <v>1916</v>
@@ -3272,10 +3272,10 @@
         <v>10726</v>
       </c>
       <c r="BT5" t="n">
-        <v>10728</v>
+        <v>10761</v>
       </c>
       <c r="BU5" t="n">
-        <v>11802</v>
+        <v>11845</v>
       </c>
       <c r="BV5" t="n">
         <v>11390</v>
@@ -3347,7 +3347,7 @@
         <v>11533</v>
       </c>
       <c r="CS5" t="n">
-        <v>10395</v>
+        <v>10212</v>
       </c>
       <c r="CT5" t="n">
         <v>11844</v>
@@ -3392,7 +3392,7 @@
         <v>12008</v>
       </c>
       <c r="DH5" t="n">
-        <v>12223</v>
+        <v>12182</v>
       </c>
       <c r="DI5" t="n">
         <v>12195</v>
@@ -3449,7 +3449,7 @@
         <v>10973</v>
       </c>
       <c r="EA5" t="n">
-        <v>12223</v>
+        <v>12182</v>
       </c>
       <c r="EB5" t="n">
         <v>15106</v>
@@ -3509,7 +3509,7 @@
         <v>13743</v>
       </c>
       <c r="EU5" t="n">
-        <v>23011</v>
+        <v>23008</v>
       </c>
       <c r="EV5" t="n">
         <v>25808</v>
@@ -3527,10 +3527,10 @@
         <v>26654</v>
       </c>
       <c r="FA5" t="n">
-        <v>23125</v>
+        <v>23122</v>
       </c>
       <c r="FB5" t="n">
-        <v>23011</v>
+        <v>23008</v>
       </c>
       <c r="FC5" t="n">
         <v>26014</v>
@@ -3545,16 +3545,16 @@
         <v>27728</v>
       </c>
       <c r="FG5" t="n">
-        <v>23011</v>
+        <v>23008</v>
       </c>
       <c r="FH5" t="n">
-        <v>21095</v>
+        <v>21115</v>
       </c>
       <c r="FI5" t="n">
         <v>26014</v>
       </c>
       <c r="FJ5" t="n">
-        <v>23011</v>
+        <v>23008</v>
       </c>
       <c r="FK5" t="n">
         <v>27728</v>
@@ -3578,7 +3578,7 @@
         <v>16385</v>
       </c>
       <c r="FR5" t="n">
-        <v>19921</v>
+        <v>19917</v>
       </c>
       <c r="FS5" t="n">
         <v>14469</v>
@@ -3641,76 +3641,76 @@
         <v>18504</v>
       </c>
       <c r="GM5" t="n">
-        <v>3371</v>
+        <v>11611</v>
       </c>
       <c r="GN5" t="n">
-        <v>3371</v>
+        <v>17750</v>
       </c>
       <c r="GO5" t="n">
-        <v>1219</v>
+        <v>17468</v>
       </c>
       <c r="GP5" t="n">
-        <v>0</v>
+        <v>17181</v>
       </c>
       <c r="GQ5" t="n">
-        <v>2093</v>
+        <v>17174</v>
       </c>
       <c r="GR5" t="n">
-        <v>2647</v>
+        <v>16699</v>
       </c>
       <c r="GS5" t="n">
-        <v>11434</v>
+        <v>19012</v>
       </c>
       <c r="GT5" t="n">
-        <v>10850</v>
+        <v>16388</v>
       </c>
       <c r="GU5" t="n">
-        <v>9123</v>
+        <v>17022</v>
       </c>
       <c r="GV5" t="n">
-        <v>11661</v>
+        <v>17991</v>
       </c>
       <c r="GW5" t="n">
-        <v>10663</v>
+        <v>16385</v>
       </c>
       <c r="GX5" t="n">
-        <v>11162</v>
+        <v>17355</v>
       </c>
       <c r="GY5" t="n">
-        <v>15503</v>
+        <v>20714</v>
       </c>
       <c r="GZ5" t="n">
-        <v>14965</v>
+        <v>17131</v>
       </c>
       <c r="HA5" t="n">
-        <v>15772</v>
+        <v>16574</v>
       </c>
       <c r="HB5" t="n">
-        <v>13770</v>
+        <v>16337</v>
       </c>
       <c r="HC5" t="n">
-        <v>15445</v>
+        <v>16571</v>
       </c>
       <c r="HD5" t="n">
-        <v>14772</v>
+        <v>16955</v>
       </c>
       <c r="HE5" t="n">
-        <v>17468</v>
+        <v>21923</v>
       </c>
       <c r="HF5" t="n">
-        <v>17355</v>
+        <v>16614</v>
       </c>
       <c r="HG5" t="n">
-        <v>12223</v>
+        <v>13853</v>
       </c>
       <c r="HH5" t="n">
-        <v>16929</v>
+        <v>14936</v>
       </c>
       <c r="HI5" t="n">
-        <v>20070</v>
+        <v>18253</v>
       </c>
       <c r="HJ5" t="n">
-        <v>19075</v>
+        <v>17324</v>
       </c>
     </row>
     <row r="6">
@@ -3775,7 +3775,7 @@
         <v>4194</v>
       </c>
       <c r="U6" t="n">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="V6" t="n">
         <v>2420</v>
@@ -3796,7 +3796,7 @@
         <v>1024</v>
       </c>
       <c r="AB6" t="n">
-        <v>5983</v>
+        <v>5998</v>
       </c>
       <c r="AC6" t="n">
         <v>2426</v>
@@ -3928,10 +3928,10 @@
         <v>8302</v>
       </c>
       <c r="BT6" t="n">
-        <v>8304</v>
+        <v>8337</v>
       </c>
       <c r="BU6" t="n">
-        <v>9378</v>
+        <v>9421</v>
       </c>
       <c r="BV6" t="n">
         <v>8966</v>
@@ -4003,7 +4003,7 @@
         <v>9109</v>
       </c>
       <c r="CS6" t="n">
-        <v>7971</v>
+        <v>7788</v>
       </c>
       <c r="CT6" t="n">
         <v>9420</v>
@@ -4027,7 +4027,7 @@
         <v>9647</v>
       </c>
       <c r="DA6" t="n">
-        <v>9735</v>
+        <v>9736</v>
       </c>
       <c r="DB6" t="n">
         <v>9878</v>
@@ -4039,7 +4039,7 @@
         <v>9445</v>
       </c>
       <c r="DE6" t="n">
-        <v>9794</v>
+        <v>9795</v>
       </c>
       <c r="DF6" t="n">
         <v>8802</v>
@@ -4075,7 +4075,7 @@
         <v>12115</v>
       </c>
       <c r="DQ6" t="n">
-        <v>9794</v>
+        <v>9795</v>
       </c>
       <c r="DR6" t="n">
         <v>13115</v>
@@ -4102,7 +4102,7 @@
         <v>11254</v>
       </c>
       <c r="DZ6" t="n">
-        <v>8961</v>
+        <v>8962</v>
       </c>
       <c r="EA6" t="n">
         <v>9734</v>
@@ -4165,7 +4165,7 @@
         <v>11254</v>
       </c>
       <c r="EU6" t="n">
-        <v>20522</v>
+        <v>20519</v>
       </c>
       <c r="EV6" t="n">
         <v>23384</v>
@@ -4174,7 +4174,7 @@
         <v>23728</v>
       </c>
       <c r="EX6" t="n">
-        <v>22218</v>
+        <v>23835</v>
       </c>
       <c r="EY6" t="n">
         <v>24549</v>
@@ -4183,10 +4183,10 @@
         <v>24230</v>
       </c>
       <c r="FA6" t="n">
-        <v>20636</v>
+        <v>20633</v>
       </c>
       <c r="FB6" t="n">
-        <v>20522</v>
+        <v>20519</v>
       </c>
       <c r="FC6" t="n">
         <v>23590</v>
@@ -4201,16 +4201,16 @@
         <v>25304</v>
       </c>
       <c r="FG6" t="n">
-        <v>20522</v>
+        <v>20519</v>
       </c>
       <c r="FH6" t="n">
-        <v>19084</v>
+        <v>19104</v>
       </c>
       <c r="FI6" t="n">
         <v>23590</v>
       </c>
       <c r="FJ6" t="n">
-        <v>20522</v>
+        <v>20519</v>
       </c>
       <c r="FK6" t="n">
         <v>25304</v>
@@ -4234,7 +4234,7 @@
         <v>13961</v>
       </c>
       <c r="FR6" t="n">
-        <v>17432</v>
+        <v>17428</v>
       </c>
       <c r="FS6" t="n">
         <v>12045</v>
@@ -4297,76 +4297,76 @@
         <v>16080</v>
       </c>
       <c r="GM6" t="n">
-        <v>811</v>
+        <v>9122</v>
       </c>
       <c r="GN6" t="n">
-        <v>811</v>
+        <v>15326</v>
       </c>
       <c r="GO6" t="n">
-        <v>965</v>
+        <v>15044</v>
       </c>
       <c r="GP6" t="n">
-        <v>2089</v>
+        <v>14757</v>
       </c>
       <c r="GQ6" t="n">
-        <v>0</v>
+        <v>14750</v>
       </c>
       <c r="GR6" t="n">
-        <v>636</v>
+        <v>14210</v>
       </c>
       <c r="GS6" t="n">
-        <v>9010</v>
+        <v>16588</v>
       </c>
       <c r="GT6" t="n">
-        <v>8426</v>
+        <v>13964</v>
       </c>
       <c r="GU6" t="n">
-        <v>6699</v>
+        <v>14598</v>
       </c>
       <c r="GV6" t="n">
-        <v>9237</v>
+        <v>15567</v>
       </c>
       <c r="GW6" t="n">
-        <v>8239</v>
+        <v>13961</v>
       </c>
       <c r="GX6" t="n">
-        <v>8738</v>
+        <v>14931</v>
       </c>
       <c r="GY6" t="n">
-        <v>13014</v>
+        <v>18290</v>
       </c>
       <c r="GZ6" t="n">
-        <v>12476</v>
+        <v>14707</v>
       </c>
       <c r="HA6" t="n">
-        <v>13283</v>
+        <v>14150</v>
       </c>
       <c r="HB6" t="n">
-        <v>11281</v>
+        <v>13913</v>
       </c>
       <c r="HC6" t="n">
-        <v>12956</v>
+        <v>14147</v>
       </c>
       <c r="HD6" t="n">
-        <v>12283</v>
+        <v>14531</v>
       </c>
       <c r="HE6" t="n">
-        <v>15044</v>
+        <v>19499</v>
       </c>
       <c r="HF6" t="n">
-        <v>14931</v>
+        <v>14190</v>
       </c>
       <c r="HG6" t="n">
-        <v>9734</v>
+        <v>11364</v>
       </c>
       <c r="HH6" t="n">
-        <v>14505</v>
+        <v>12512</v>
       </c>
       <c r="HI6" t="n">
-        <v>17646</v>
+        <v>15829</v>
       </c>
       <c r="HJ6" t="n">
-        <v>16651</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="7">
@@ -4431,7 +4431,7 @@
         <v>3984</v>
       </c>
       <c r="U7" t="n">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="V7" t="n">
         <v>2979</v>
@@ -4452,7 +4452,7 @@
         <v>1583</v>
       </c>
       <c r="AB7" t="n">
-        <v>5773</v>
+        <v>5788</v>
       </c>
       <c r="AC7" t="n">
         <v>2985</v>
@@ -4584,10 +4584,10 @@
         <v>8092</v>
       </c>
       <c r="BT7" t="n">
-        <v>8094</v>
+        <v>8127</v>
       </c>
       <c r="BU7" t="n">
-        <v>9168</v>
+        <v>9211</v>
       </c>
       <c r="BV7" t="n">
         <v>8756</v>
@@ -4659,7 +4659,7 @@
         <v>8899</v>
       </c>
       <c r="CS7" t="n">
-        <v>7761</v>
+        <v>7578</v>
       </c>
       <c r="CT7" t="n">
         <v>9210</v>
@@ -4821,7 +4821,7 @@
         <v>11044</v>
       </c>
       <c r="EU7" t="n">
-        <v>20312</v>
+        <v>20309</v>
       </c>
       <c r="EV7" t="n">
         <v>23174</v>
@@ -4830,7 +4830,7 @@
         <v>23518</v>
       </c>
       <c r="EX7" t="n">
-        <v>22008</v>
+        <v>23625</v>
       </c>
       <c r="EY7" t="n">
         <v>24339</v>
@@ -4839,10 +4839,10 @@
         <v>24020</v>
       </c>
       <c r="FA7" t="n">
-        <v>20426</v>
+        <v>20423</v>
       </c>
       <c r="FB7" t="n">
-        <v>20312</v>
+        <v>20309</v>
       </c>
       <c r="FC7" t="n">
         <v>23380</v>
@@ -4857,16 +4857,16 @@
         <v>25094</v>
       </c>
       <c r="FG7" t="n">
-        <v>20312</v>
+        <v>20309</v>
       </c>
       <c r="FH7" t="n">
-        <v>18874</v>
+        <v>18894</v>
       </c>
       <c r="FI7" t="n">
         <v>23380</v>
       </c>
       <c r="FJ7" t="n">
-        <v>20312</v>
+        <v>20309</v>
       </c>
       <c r="FK7" t="n">
         <v>25094</v>
@@ -4890,7 +4890,7 @@
         <v>13751</v>
       </c>
       <c r="FR7" t="n">
-        <v>17222</v>
+        <v>17218</v>
       </c>
       <c r="FS7" t="n">
         <v>11835</v>
@@ -4953,76 +4953,76 @@
         <v>15870</v>
       </c>
       <c r="GM7" t="n">
-        <v>996</v>
+        <v>8912</v>
       </c>
       <c r="GN7" t="n">
-        <v>996</v>
+        <v>15116</v>
       </c>
       <c r="GO7" t="n">
-        <v>1524</v>
+        <v>14834</v>
       </c>
       <c r="GP7" t="n">
-        <v>2648</v>
+        <v>14547</v>
       </c>
       <c r="GQ7" t="n">
-        <v>621</v>
+        <v>14540</v>
       </c>
       <c r="GR7" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="GS7" t="n">
-        <v>8800</v>
+        <v>16378</v>
       </c>
       <c r="GT7" t="n">
-        <v>8216</v>
+        <v>13754</v>
       </c>
       <c r="GU7" t="n">
-        <v>6489</v>
+        <v>14388</v>
       </c>
       <c r="GV7" t="n">
-        <v>9027</v>
+        <v>15357</v>
       </c>
       <c r="GW7" t="n">
-        <v>8029</v>
+        <v>13751</v>
       </c>
       <c r="GX7" t="n">
-        <v>8528</v>
+        <v>14721</v>
       </c>
       <c r="GY7" t="n">
-        <v>12804</v>
+        <v>18080</v>
       </c>
       <c r="GZ7" t="n">
-        <v>12266</v>
+        <v>14497</v>
       </c>
       <c r="HA7" t="n">
-        <v>13073</v>
+        <v>13940</v>
       </c>
       <c r="HB7" t="n">
-        <v>11071</v>
+        <v>13703</v>
       </c>
       <c r="HC7" t="n">
-        <v>12746</v>
+        <v>13937</v>
       </c>
       <c r="HD7" t="n">
-        <v>12073</v>
+        <v>14321</v>
       </c>
       <c r="HE7" t="n">
-        <v>14834</v>
+        <v>19289</v>
       </c>
       <c r="HF7" t="n">
-        <v>14721</v>
+        <v>13980</v>
       </c>
       <c r="HG7" t="n">
-        <v>9524</v>
+        <v>11154</v>
       </c>
       <c r="HH7" t="n">
-        <v>14295</v>
+        <v>12302</v>
       </c>
       <c r="HI7" t="n">
-        <v>17436</v>
+        <v>15619</v>
       </c>
       <c r="HJ7" t="n">
-        <v>16441</v>
+        <v>14690</v>
       </c>
     </row>
     <row r="8">
@@ -5048,7 +5048,7 @@
         <v>9890</v>
       </c>
       <c r="H8" t="n">
-        <v>9412</v>
+        <v>9334</v>
       </c>
       <c r="I8" t="n">
         <v>10773</v>
@@ -5105,7 +5105,7 @@
         <v>11151</v>
       </c>
       <c r="AA8" t="n">
-        <v>10476</v>
+        <v>9250</v>
       </c>
       <c r="AB8" t="n">
         <v>13716</v>
@@ -5189,7 +5189,7 @@
         <v>1236</v>
       </c>
       <c r="BC8" t="n">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="BD8" t="n">
         <v>418</v>
@@ -5546,7 +5546,7 @@
         <v>7074</v>
       </c>
       <c r="FR8" t="n">
-        <v>15294</v>
+        <v>15303</v>
       </c>
       <c r="FS8" t="n">
         <v>5158</v>
@@ -5609,76 +5609,76 @@
         <v>9193</v>
       </c>
       <c r="GM8" t="n">
-        <v>8388</v>
+        <v>6656</v>
       </c>
       <c r="GN8" t="n">
-        <v>8388</v>
+        <v>8439</v>
       </c>
       <c r="GO8" t="n">
-        <v>9475</v>
+        <v>8157</v>
       </c>
       <c r="GP8" t="n">
-        <v>11120</v>
+        <v>7870</v>
       </c>
       <c r="GQ8" t="n">
-        <v>9669</v>
+        <v>7863</v>
       </c>
       <c r="GR8" t="n">
-        <v>9460</v>
+        <v>11744</v>
       </c>
       <c r="GS8" t="n">
-        <v>0</v>
+        <v>9701</v>
       </c>
       <c r="GT8" t="n">
-        <v>606</v>
+        <v>7077</v>
       </c>
       <c r="GU8" t="n">
-        <v>1886</v>
+        <v>7711</v>
       </c>
       <c r="GV8" t="n">
-        <v>433</v>
+        <v>8680</v>
       </c>
       <c r="GW8" t="n">
-        <v>787</v>
+        <v>7074</v>
       </c>
       <c r="GX8" t="n">
-        <v>260</v>
+        <v>8044</v>
       </c>
       <c r="GY8" t="n">
-        <v>10548</v>
+        <v>11403</v>
       </c>
       <c r="GZ8" t="n">
-        <v>10010</v>
+        <v>7820</v>
       </c>
       <c r="HA8" t="n">
-        <v>10817</v>
+        <v>7263</v>
       </c>
       <c r="HB8" t="n">
-        <v>8815</v>
+        <v>7026</v>
       </c>
       <c r="HC8" t="n">
-        <v>10490</v>
+        <v>7260</v>
       </c>
       <c r="HD8" t="n">
-        <v>9817</v>
+        <v>7644</v>
       </c>
       <c r="HE8" t="n">
-        <v>8157</v>
+        <v>12612</v>
       </c>
       <c r="HF8" t="n">
-        <v>8044</v>
+        <v>7303</v>
       </c>
       <c r="HG8" t="n">
-        <v>7617</v>
+        <v>8898</v>
       </c>
       <c r="HH8" t="n">
-        <v>7618</v>
+        <v>5625</v>
       </c>
       <c r="HI8" t="n">
-        <v>10759</v>
+        <v>8942</v>
       </c>
       <c r="HJ8" t="n">
-        <v>9764</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="9">
@@ -5704,7 +5704,7 @@
         <v>9306</v>
       </c>
       <c r="H9" t="n">
-        <v>8828</v>
+        <v>8750</v>
       </c>
       <c r="I9" t="n">
         <v>10189</v>
@@ -5761,7 +5761,7 @@
         <v>10567</v>
       </c>
       <c r="AA9" t="n">
-        <v>9892</v>
+        <v>8666</v>
       </c>
       <c r="AB9" t="n">
         <v>13132</v>
@@ -6202,7 +6202,7 @@
         <v>6624</v>
       </c>
       <c r="FR9" t="n">
-        <v>14844</v>
+        <v>14853</v>
       </c>
       <c r="FS9" t="n">
         <v>4708</v>
@@ -6265,76 +6265,76 @@
         <v>8743</v>
       </c>
       <c r="GM9" t="n">
-        <v>7804</v>
+        <v>6206</v>
       </c>
       <c r="GN9" t="n">
-        <v>7804</v>
+        <v>7989</v>
       </c>
       <c r="GO9" t="n">
-        <v>8891</v>
+        <v>7707</v>
       </c>
       <c r="GP9" t="n">
-        <v>10536</v>
+        <v>7420</v>
       </c>
       <c r="GQ9" t="n">
-        <v>9085</v>
+        <v>7413</v>
       </c>
       <c r="GR9" t="n">
-        <v>8876</v>
+        <v>11294</v>
       </c>
       <c r="GS9" t="n">
-        <v>606</v>
+        <v>9251</v>
       </c>
       <c r="GT9" t="n">
-        <v>0</v>
+        <v>6627</v>
       </c>
       <c r="GU9" t="n">
-        <v>2429</v>
+        <v>7261</v>
       </c>
       <c r="GV9" t="n">
-        <v>829</v>
+        <v>8230</v>
       </c>
       <c r="GW9" t="n">
-        <v>440</v>
+        <v>6624</v>
       </c>
       <c r="GX9" t="n">
-        <v>394</v>
+        <v>7594</v>
       </c>
       <c r="GY9" t="n">
-        <v>10098</v>
+        <v>10953</v>
       </c>
       <c r="GZ9" t="n">
-        <v>9560</v>
+        <v>7370</v>
       </c>
       <c r="HA9" t="n">
-        <v>10367</v>
+        <v>6813</v>
       </c>
       <c r="HB9" t="n">
-        <v>8365</v>
+        <v>6576</v>
       </c>
       <c r="HC9" t="n">
-        <v>10040</v>
+        <v>6810</v>
       </c>
       <c r="HD9" t="n">
-        <v>9367</v>
+        <v>7194</v>
       </c>
       <c r="HE9" t="n">
-        <v>7707</v>
+        <v>12162</v>
       </c>
       <c r="HF9" t="n">
-        <v>7594</v>
+        <v>6853</v>
       </c>
       <c r="HG9" t="n">
-        <v>7167</v>
+        <v>8448</v>
       </c>
       <c r="HH9" t="n">
-        <v>7168</v>
+        <v>5175</v>
       </c>
       <c r="HI9" t="n">
-        <v>10309</v>
+        <v>8492</v>
       </c>
       <c r="HJ9" t="n">
-        <v>9314</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="10">
@@ -6360,7 +6360,7 @@
         <v>7944</v>
       </c>
       <c r="H10" t="n">
-        <v>7466</v>
+        <v>7388</v>
       </c>
       <c r="I10" t="n">
         <v>8827</v>
@@ -6417,7 +6417,7 @@
         <v>9205</v>
       </c>
       <c r="AA10" t="n">
-        <v>8530</v>
+        <v>7304</v>
       </c>
       <c r="AB10" t="n">
         <v>11770</v>
@@ -6495,7 +6495,7 @@
         <v>3770</v>
       </c>
       <c r="BA10" t="n">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="BB10" t="n">
         <v>2945</v>
@@ -6522,7 +6522,7 @@
         <v>1801</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="BK10" t="n">
         <v>1840</v>
@@ -6531,7 +6531,7 @@
         <v>2965</v>
       </c>
       <c r="BM10" t="n">
-        <v>1823</v>
+        <v>1814</v>
       </c>
       <c r="BN10" t="n">
         <v>2679</v>
@@ -6576,7 +6576,7 @@
         <v>2183</v>
       </c>
       <c r="CB10" t="n">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="CC10" t="n">
         <v>1840</v>
@@ -6585,7 +6585,7 @@
         <v>1840</v>
       </c>
       <c r="CE10" t="n">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="CF10" t="n">
         <v>1902</v>
@@ -6615,7 +6615,7 @@
         <v>2120</v>
       </c>
       <c r="CO10" t="n">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="CP10" t="n">
         <v>1351</v>
@@ -6627,7 +6627,7 @@
         <v>1852</v>
       </c>
       <c r="CS10" t="n">
-        <v>3034</v>
+        <v>2855</v>
       </c>
       <c r="CT10" t="n">
         <v>2159</v>
@@ -6789,7 +6789,7 @@
         <v>7525</v>
       </c>
       <c r="EU10" t="n">
-        <v>16793</v>
+        <v>16790</v>
       </c>
       <c r="EV10" t="n">
         <v>18447</v>
@@ -6807,10 +6807,10 @@
         <v>19293</v>
       </c>
       <c r="FA10" t="n">
-        <v>16907</v>
+        <v>16904</v>
       </c>
       <c r="FB10" t="n">
-        <v>16793</v>
+        <v>16790</v>
       </c>
       <c r="FC10" t="n">
         <v>18653</v>
@@ -6825,7 +6825,7 @@
         <v>20367</v>
       </c>
       <c r="FG10" t="n">
-        <v>16793</v>
+        <v>16790</v>
       </c>
       <c r="FH10" t="n">
         <v>18181</v>
@@ -6834,7 +6834,7 @@
         <v>18653</v>
       </c>
       <c r="FJ10" t="n">
-        <v>16793</v>
+        <v>16790</v>
       </c>
       <c r="FK10" t="n">
         <v>20367</v>
@@ -6858,7 +6858,7 @@
         <v>9024</v>
       </c>
       <c r="FR10" t="n">
-        <v>13703</v>
+        <v>13699</v>
       </c>
       <c r="FS10" t="n">
         <v>7108</v>
@@ -6921,76 +6921,76 @@
         <v>11143</v>
       </c>
       <c r="GM10" t="n">
-        <v>6442</v>
+        <v>5393</v>
       </c>
       <c r="GN10" t="n">
-        <v>6442</v>
+        <v>10389</v>
       </c>
       <c r="GO10" t="n">
-        <v>7529</v>
+        <v>10107</v>
       </c>
       <c r="GP10" t="n">
-        <v>9174</v>
+        <v>9820</v>
       </c>
       <c r="GQ10" t="n">
-        <v>7723</v>
+        <v>9813</v>
       </c>
       <c r="GR10" t="n">
-        <v>7514</v>
+        <v>10481</v>
       </c>
       <c r="GS10" t="n">
-        <v>1876</v>
+        <v>11651</v>
       </c>
       <c r="GT10" t="n">
-        <v>2272</v>
+        <v>9027</v>
       </c>
       <c r="GU10" t="n">
-        <v>0</v>
+        <v>9661</v>
       </c>
       <c r="GV10" t="n">
-        <v>2219</v>
+        <v>10630</v>
       </c>
       <c r="GW10" t="n">
-        <v>1802</v>
+        <v>9024</v>
       </c>
       <c r="GX10" t="n">
-        <v>1926</v>
+        <v>9994</v>
       </c>
       <c r="GY10" t="n">
-        <v>9285</v>
+        <v>13353</v>
       </c>
       <c r="GZ10" t="n">
-        <v>8747</v>
+        <v>9770</v>
       </c>
       <c r="HA10" t="n">
-        <v>9554</v>
+        <v>9213</v>
       </c>
       <c r="HB10" t="n">
-        <v>7552</v>
+        <v>8976</v>
       </c>
       <c r="HC10" t="n">
-        <v>9227</v>
+        <v>9210</v>
       </c>
       <c r="HD10" t="n">
-        <v>8554</v>
+        <v>9594</v>
       </c>
       <c r="HE10" t="n">
-        <v>10107</v>
+        <v>14562</v>
       </c>
       <c r="HF10" t="n">
-        <v>9994</v>
+        <v>9253</v>
       </c>
       <c r="HG10" t="n">
-        <v>6354</v>
+        <v>7635</v>
       </c>
       <c r="HH10" t="n">
-        <v>9568</v>
+        <v>7575</v>
       </c>
       <c r="HI10" t="n">
-        <v>12709</v>
+        <v>10892</v>
       </c>
       <c r="HJ10" t="n">
-        <v>11714</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="11">
@@ -7016,7 +7016,7 @@
         <v>10200</v>
       </c>
       <c r="H11" t="n">
-        <v>9722</v>
+        <v>9644</v>
       </c>
       <c r="I11" t="n">
         <v>11083</v>
@@ -7073,7 +7073,7 @@
         <v>11461</v>
       </c>
       <c r="AA11" t="n">
-        <v>10786</v>
+        <v>9560</v>
       </c>
       <c r="AB11" t="n">
         <v>14026</v>
@@ -7157,7 +7157,7 @@
         <v>1456</v>
       </c>
       <c r="BC11" t="n">
-        <v>1700</v>
+        <v>1934</v>
       </c>
       <c r="BD11" t="n">
         <v>643</v>
@@ -7187,7 +7187,7 @@
         <v>1466</v>
       </c>
       <c r="BM11" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="BN11" t="n">
         <v>1636</v>
@@ -7232,7 +7232,7 @@
         <v>182</v>
       </c>
       <c r="CB11" t="n">
-        <v>1697</v>
+        <v>1931</v>
       </c>
       <c r="CC11" t="n">
         <v>399</v>
@@ -7241,7 +7241,7 @@
         <v>399</v>
       </c>
       <c r="CE11" t="n">
-        <v>1648</v>
+        <v>1882</v>
       </c>
       <c r="CF11" t="n">
         <v>461</v>
@@ -7514,7 +7514,7 @@
         <v>7299</v>
       </c>
       <c r="FR11" t="n">
-        <v>15519</v>
+        <v>15528</v>
       </c>
       <c r="FS11" t="n">
         <v>5383</v>
@@ -7577,231 +7577,231 @@
         <v>9418</v>
       </c>
       <c r="GM11" t="n">
-        <v>8698</v>
+        <v>6881</v>
       </c>
       <c r="GN11" t="n">
-        <v>8698</v>
+        <v>8664</v>
       </c>
       <c r="GO11" t="n">
-        <v>9785</v>
+        <v>8382</v>
       </c>
       <c r="GP11" t="n">
-        <v>11430</v>
+        <v>8095</v>
       </c>
       <c r="GQ11" t="n">
-        <v>9979</v>
+        <v>8088</v>
       </c>
       <c r="GR11" t="n">
-        <v>9770</v>
+        <v>11969</v>
       </c>
       <c r="GS11" t="n">
-        <v>435</v>
+        <v>9926</v>
       </c>
       <c r="GT11" t="n">
-        <v>831</v>
+        <v>7302</v>
       </c>
       <c r="GU11" t="n">
-        <v>2502</v>
+        <v>7936</v>
       </c>
       <c r="GV11" t="n">
-        <v>0</v>
+        <v>8905</v>
       </c>
       <c r="GW11" t="n">
-        <v>1007</v>
+        <v>7299</v>
       </c>
       <c r="GX11" t="n">
-        <v>485</v>
+        <v>8269</v>
       </c>
       <c r="GY11" t="n">
-        <v>10773</v>
+        <v>11628</v>
       </c>
       <c r="GZ11" t="n">
-        <v>10235</v>
+        <v>8045</v>
       </c>
       <c r="HA11" t="n">
-        <v>11042</v>
+        <v>7488</v>
       </c>
       <c r="HB11" t="n">
-        <v>9040</v>
+        <v>7251</v>
       </c>
       <c r="HC11" t="n">
-        <v>10715</v>
+        <v>7485</v>
       </c>
       <c r="HD11" t="n">
-        <v>10042</v>
+        <v>7869</v>
       </c>
       <c r="HE11" t="n">
-        <v>8382</v>
+        <v>12837</v>
       </c>
       <c r="HF11" t="n">
-        <v>8269</v>
+        <v>7528</v>
       </c>
       <c r="HG11" t="n">
-        <v>7842</v>
+        <v>9123</v>
       </c>
       <c r="HH11" t="n">
-        <v>7843</v>
+        <v>5850</v>
       </c>
       <c r="HI11" t="n">
-        <v>10984</v>
+        <v>9167</v>
       </c>
       <c r="HJ11" t="n">
-        <v>9989</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9800</v>
+        <v>9801</v>
       </c>
       <c r="B12" t="n">
-        <v>8431</v>
+        <v>8432</v>
       </c>
       <c r="C12" t="n">
-        <v>8746</v>
+        <v>8747</v>
       </c>
       <c r="D12" t="n">
-        <v>8431</v>
+        <v>8432</v>
       </c>
       <c r="E12" t="n">
-        <v>7466</v>
+        <v>7467</v>
       </c>
       <c r="F12" t="n">
-        <v>8270</v>
+        <v>8271</v>
       </c>
       <c r="G12" t="n">
-        <v>9120</v>
+        <v>9121</v>
       </c>
       <c r="H12" t="n">
-        <v>8642</v>
+        <v>8565</v>
       </c>
       <c r="I12" t="n">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="J12" t="n">
+        <v>7429</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8765</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5880</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7452</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7780</v>
+      </c>
+      <c r="O12" t="n">
         <v>7428</v>
       </c>
-      <c r="K12" t="n">
-        <v>8764</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5879</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7451</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7779</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7427</v>
-      </c>
       <c r="P12" t="n">
-        <v>6586</v>
+        <v>6587</v>
       </c>
       <c r="Q12" t="n">
-        <v>7371</v>
+        <v>7372</v>
       </c>
       <c r="R12" t="n">
-        <v>7580</v>
+        <v>7581</v>
       </c>
       <c r="S12" t="n">
-        <v>9682</v>
+        <v>9683</v>
       </c>
       <c r="T12" t="n">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="U12" t="n">
-        <v>7985</v>
+        <v>7986</v>
       </c>
       <c r="V12" t="n">
-        <v>9922</v>
+        <v>9923</v>
       </c>
       <c r="W12" t="n">
-        <v>7466</v>
+        <v>7467</v>
       </c>
       <c r="X12" t="n">
-        <v>7553</v>
+        <v>7554</v>
       </c>
       <c r="Y12" t="n">
-        <v>8509</v>
+        <v>8510</v>
       </c>
       <c r="Z12" t="n">
-        <v>10381</v>
+        <v>10382</v>
       </c>
       <c r="AA12" t="n">
-        <v>9706</v>
+        <v>8481</v>
       </c>
       <c r="AB12" t="n">
-        <v>12946</v>
+        <v>12947</v>
       </c>
       <c r="AC12" t="n">
-        <v>7030</v>
+        <v>7031</v>
       </c>
       <c r="AD12" t="n">
-        <v>10122</v>
+        <v>10123</v>
       </c>
       <c r="AE12" t="n">
-        <v>10453</v>
+        <v>10454</v>
       </c>
       <c r="AF12" t="n">
-        <v>10642</v>
+        <v>10643</v>
       </c>
       <c r="AG12" t="n">
-        <v>10326</v>
+        <v>10327</v>
       </c>
       <c r="AH12" t="n">
-        <v>7732</v>
+        <v>7733</v>
       </c>
       <c r="AI12" t="n">
-        <v>8943</v>
+        <v>8944</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7618</v>
+        <v>7619</v>
       </c>
       <c r="AK12" t="n">
-        <v>10350</v>
+        <v>10351</v>
       </c>
       <c r="AL12" t="n">
-        <v>8705</v>
+        <v>8706</v>
       </c>
       <c r="AM12" t="n">
-        <v>9651</v>
+        <v>9652</v>
       </c>
       <c r="AN12" t="n">
-        <v>8705</v>
+        <v>8706</v>
       </c>
       <c r="AO12" t="n">
-        <v>9196</v>
+        <v>9197</v>
       </c>
       <c r="AP12" t="n">
-        <v>9672</v>
+        <v>9673</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9938</v>
+        <v>9939</v>
       </c>
       <c r="AR12" t="n">
-        <v>8567</v>
+        <v>8568</v>
       </c>
       <c r="AS12" t="n">
-        <v>8555</v>
+        <v>8556</v>
       </c>
       <c r="AT12" t="n">
-        <v>7618</v>
+        <v>7619</v>
       </c>
       <c r="AU12" t="n">
-        <v>9651</v>
+        <v>9652</v>
       </c>
       <c r="AV12" t="n">
-        <v>8530</v>
+        <v>8531</v>
       </c>
       <c r="AW12" t="n">
-        <v>7733</v>
+        <v>7734</v>
       </c>
       <c r="AX12" t="n">
-        <v>11112</v>
+        <v>11113</v>
       </c>
       <c r="AY12" t="n">
-        <v>3778</v>
+        <v>3685</v>
       </c>
       <c r="AZ12" t="n">
         <v>3914</v>
@@ -7816,7 +7816,7 @@
         <v>832</v>
       </c>
       <c r="BD12" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="BE12" t="n">
         <v>3956</v>
@@ -7825,7 +7825,7 @@
         <v>920</v>
       </c>
       <c r="BG12" t="n">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="BH12" t="n">
         <v>768</v>
@@ -7837,7 +7837,7 @@
         <v>90</v>
       </c>
       <c r="BK12" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="BL12" t="n">
         <v>594</v>
@@ -7846,19 +7846,19 @@
         <v>163</v>
       </c>
       <c r="BN12" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="BO12" t="n">
         <v>205</v>
       </c>
       <c r="BP12" t="n">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="BQ12" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="BR12" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="BS12" t="n">
         <v>184</v>
@@ -7867,7 +7867,7 @@
         <v>709</v>
       </c>
       <c r="BU12" t="n">
-        <v>1155</v>
+        <v>1201</v>
       </c>
       <c r="BV12" t="n">
         <v>743</v>
@@ -7876,10 +7876,10 @@
         <v>426</v>
       </c>
       <c r="BX12" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="BY12" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="BZ12" t="n">
         <v>759</v>
@@ -7891,10 +7891,10 @@
         <v>829</v>
       </c>
       <c r="CC12" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="CD12" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="CE12" t="n">
         <v>676</v>
@@ -7909,7 +7909,7 @@
         <v>825</v>
       </c>
       <c r="CI12" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="CJ12" t="n">
         <v>532</v>
@@ -7939,7 +7939,7 @@
         <v>886</v>
       </c>
       <c r="CS12" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="CT12" t="n">
         <v>1159</v>
@@ -7948,37 +7948,37 @@
         <v>759</v>
       </c>
       <c r="CV12" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="CW12" t="n">
-        <v>15856</v>
+        <v>15857</v>
       </c>
       <c r="CX12" t="n">
         <v>11057</v>
       </c>
       <c r="CY12" t="n">
-        <v>10284</v>
+        <v>10285</v>
       </c>
       <c r="CZ12" t="n">
         <v>10921</v>
       </c>
       <c r="DA12" t="n">
-        <v>10373</v>
+        <v>10374</v>
       </c>
       <c r="DB12" t="n">
         <v>11152</v>
       </c>
       <c r="DC12" t="n">
-        <v>10107</v>
+        <v>10108</v>
       </c>
       <c r="DD12" t="n">
         <v>10719</v>
       </c>
       <c r="DE12" t="n">
-        <v>10432</v>
+        <v>10433</v>
       </c>
       <c r="DF12" t="n">
-        <v>9918</v>
+        <v>9919</v>
       </c>
       <c r="DG12" t="n">
         <v>10829</v>
@@ -8011,7 +8011,7 @@
         <v>9207</v>
       </c>
       <c r="DQ12" t="n">
-        <v>10432</v>
+        <v>10433</v>
       </c>
       <c r="DR12" t="n">
         <v>10207</v>
@@ -8038,7 +8038,7 @@
         <v>8346</v>
       </c>
       <c r="DZ12" t="n">
-        <v>11363</v>
+        <v>11364</v>
       </c>
       <c r="EA12" t="n">
         <v>7175</v>
@@ -8050,7 +8050,7 @@
         <v>9389</v>
       </c>
       <c r="ED12" t="n">
-        <v>10392</v>
+        <v>10393</v>
       </c>
       <c r="EE12" t="n">
         <v>9484</v>
@@ -8089,7 +8089,7 @@
         <v>9040</v>
       </c>
       <c r="EQ12" t="n">
-        <v>10397</v>
+        <v>10398</v>
       </c>
       <c r="ER12" t="n">
         <v>9770</v>
@@ -8170,7 +8170,7 @@
         <v>6918</v>
       </c>
       <c r="FR12" t="n">
-        <v>14524</v>
+        <v>14520</v>
       </c>
       <c r="FS12" t="n">
         <v>5002</v>
@@ -8233,76 +8233,76 @@
         <v>9037</v>
       </c>
       <c r="GM12" t="n">
-        <v>7618</v>
+        <v>6214</v>
       </c>
       <c r="GN12" t="n">
-        <v>7618</v>
+        <v>8283</v>
       </c>
       <c r="GO12" t="n">
-        <v>8705</v>
+        <v>8001</v>
       </c>
       <c r="GP12" t="n">
-        <v>10350</v>
+        <v>7714</v>
       </c>
       <c r="GQ12" t="n">
-        <v>8899</v>
+        <v>7707</v>
       </c>
       <c r="GR12" t="n">
-        <v>8690</v>
+        <v>11302</v>
       </c>
       <c r="GS12" t="n">
-        <v>787</v>
+        <v>9545</v>
       </c>
       <c r="GT12" t="n">
-        <v>440</v>
+        <v>6921</v>
       </c>
       <c r="GU12" t="n">
-        <v>1851</v>
+        <v>7555</v>
       </c>
       <c r="GV12" t="n">
-        <v>1014</v>
+        <v>8524</v>
       </c>
       <c r="GW12" t="n">
-        <v>0</v>
+        <v>6918</v>
       </c>
       <c r="GX12" t="n">
-        <v>679</v>
+        <v>7888</v>
       </c>
       <c r="GY12" t="n">
-        <v>10106</v>
+        <v>11247</v>
       </c>
       <c r="GZ12" t="n">
-        <v>9568</v>
+        <v>7664</v>
       </c>
       <c r="HA12" t="n">
-        <v>10375</v>
+        <v>7107</v>
       </c>
       <c r="HB12" t="n">
-        <v>8373</v>
+        <v>6870</v>
       </c>
       <c r="HC12" t="n">
-        <v>10048</v>
+        <v>7104</v>
       </c>
       <c r="HD12" t="n">
-        <v>9375</v>
+        <v>7488</v>
       </c>
       <c r="HE12" t="n">
-        <v>8001</v>
+        <v>12456</v>
       </c>
       <c r="HF12" t="n">
-        <v>7888</v>
+        <v>7147</v>
       </c>
       <c r="HG12" t="n">
-        <v>7175</v>
+        <v>8456</v>
       </c>
       <c r="HH12" t="n">
-        <v>7462</v>
+        <v>5469</v>
       </c>
       <c r="HI12" t="n">
-        <v>10603</v>
+        <v>8786</v>
       </c>
       <c r="HJ12" t="n">
-        <v>9608</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="13">
@@ -8328,7 +8328,7 @@
         <v>9649</v>
       </c>
       <c r="H13" t="n">
-        <v>9171</v>
+        <v>9093</v>
       </c>
       <c r="I13" t="n">
         <v>10532</v>
@@ -8385,7 +8385,7 @@
         <v>10910</v>
       </c>
       <c r="AA13" t="n">
-        <v>10235</v>
+        <v>9009</v>
       </c>
       <c r="AB13" t="n">
         <v>13475</v>
@@ -8466,7 +8466,7 @@
         <v>723</v>
       </c>
       <c r="BB13" t="n">
-        <v>1015</v>
+        <v>977</v>
       </c>
       <c r="BC13" t="n">
         <v>1374</v>
@@ -8532,7 +8532,7 @@
         <v>275</v>
       </c>
       <c r="BX13" t="n">
-        <v>1440</v>
+        <v>1472</v>
       </c>
       <c r="BY13" t="n">
         <v>224</v>
@@ -8553,7 +8553,7 @@
         <v>224</v>
       </c>
       <c r="CE13" t="n">
-        <v>1196</v>
+        <v>1205</v>
       </c>
       <c r="CF13" t="n">
         <v>286</v>
@@ -8826,7 +8826,7 @@
         <v>6862</v>
       </c>
       <c r="FR13" t="n">
-        <v>15082</v>
+        <v>15091</v>
       </c>
       <c r="FS13" t="n">
         <v>4946</v>
@@ -8889,228 +8889,228 @@
         <v>8981</v>
       </c>
       <c r="GM13" t="n">
-        <v>8147</v>
+        <v>6444</v>
       </c>
       <c r="GN13" t="n">
-        <v>8147</v>
+        <v>8227</v>
       </c>
       <c r="GO13" t="n">
-        <v>9234</v>
+        <v>7945</v>
       </c>
       <c r="GP13" t="n">
-        <v>10879</v>
+        <v>7658</v>
       </c>
       <c r="GQ13" t="n">
-        <v>9428</v>
+        <v>7651</v>
       </c>
       <c r="GR13" t="n">
-        <v>9219</v>
+        <v>11532</v>
       </c>
       <c r="GS13" t="n">
-        <v>260</v>
+        <v>9489</v>
       </c>
       <c r="GT13" t="n">
-        <v>394</v>
+        <v>6865</v>
       </c>
       <c r="GU13" t="n">
-        <v>1936</v>
+        <v>7499</v>
       </c>
       <c r="GV13" t="n">
-        <v>483</v>
+        <v>8468</v>
       </c>
       <c r="GW13" t="n">
-        <v>671</v>
+        <v>6862</v>
       </c>
       <c r="GX13" t="n">
-        <v>0</v>
+        <v>7832</v>
       </c>
       <c r="GY13" t="n">
-        <v>10336</v>
+        <v>11191</v>
       </c>
       <c r="GZ13" t="n">
-        <v>9798</v>
+        <v>7608</v>
       </c>
       <c r="HA13" t="n">
-        <v>10605</v>
+        <v>7051</v>
       </c>
       <c r="HB13" t="n">
-        <v>8603</v>
+        <v>6814</v>
       </c>
       <c r="HC13" t="n">
-        <v>10278</v>
+        <v>7048</v>
       </c>
       <c r="HD13" t="n">
-        <v>9605</v>
+        <v>7432</v>
       </c>
       <c r="HE13" t="n">
-        <v>7945</v>
+        <v>12400</v>
       </c>
       <c r="HF13" t="n">
-        <v>7832</v>
+        <v>7091</v>
       </c>
       <c r="HG13" t="n">
-        <v>7405</v>
+        <v>8686</v>
       </c>
       <c r="HH13" t="n">
-        <v>7406</v>
+        <v>5413</v>
       </c>
       <c r="HI13" t="n">
-        <v>10547</v>
+        <v>8730</v>
       </c>
       <c r="HJ13" t="n">
-        <v>9552</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14575</v>
+        <v>14294</v>
       </c>
       <c r="B14" t="n">
-        <v>13865</v>
+        <v>13584</v>
       </c>
       <c r="C14" t="n">
-        <v>13083</v>
+        <v>12802</v>
       </c>
       <c r="D14" t="n">
-        <v>13865</v>
+        <v>13584</v>
       </c>
       <c r="E14" t="n">
-        <v>12527</v>
+        <v>12242</v>
       </c>
       <c r="F14" t="n">
-        <v>13864</v>
+        <v>13583</v>
       </c>
       <c r="G14" t="n">
-        <v>13457</v>
+        <v>13176</v>
       </c>
       <c r="H14" t="n">
-        <v>14076</v>
+        <v>13795</v>
       </c>
       <c r="I14" t="n">
-        <v>15675</v>
+        <v>15394</v>
       </c>
       <c r="J14" t="n">
-        <v>12250</v>
+        <v>11969</v>
       </c>
       <c r="K14" t="n">
-        <v>13518</v>
+        <v>13237</v>
       </c>
       <c r="L14" t="n">
         <v>9440</v>
       </c>
       <c r="M14" t="n">
-        <v>12273</v>
+        <v>11992</v>
       </c>
       <c r="N14" t="n">
-        <v>13186</v>
+        <v>12905</v>
       </c>
       <c r="O14" t="n">
-        <v>12249</v>
+        <v>11968</v>
       </c>
       <c r="P14" t="n">
-        <v>12315</v>
+        <v>12034</v>
       </c>
       <c r="Q14" t="n">
-        <v>12193</v>
+        <v>11912</v>
       </c>
       <c r="R14" t="n">
-        <v>11917</v>
+        <v>11636</v>
       </c>
       <c r="S14" t="n">
-        <v>14721</v>
+        <v>14440</v>
       </c>
       <c r="T14" t="n">
         <v>9440</v>
       </c>
       <c r="U14" t="n">
-        <v>13392</v>
+        <v>13111</v>
       </c>
       <c r="V14" t="n">
-        <v>15594</v>
+        <v>15313</v>
       </c>
       <c r="W14" t="n">
-        <v>12527</v>
+        <v>12242</v>
       </c>
       <c r="X14" t="n">
-        <v>12375</v>
+        <v>12094</v>
       </c>
       <c r="Y14" t="n">
-        <v>13263</v>
+        <v>12982</v>
       </c>
       <c r="Z14" t="n">
-        <v>16053</v>
+        <v>15772</v>
       </c>
       <c r="AA14" t="n">
-        <v>14198</v>
+        <v>13917</v>
       </c>
       <c r="AB14" t="n">
-        <v>13675</v>
+        <v>13394</v>
       </c>
       <c r="AC14" t="n">
-        <v>11852</v>
+        <v>11571</v>
       </c>
       <c r="AD14" t="n">
-        <v>15764</v>
+        <v>15483</v>
       </c>
       <c r="AE14" t="n">
-        <v>15248</v>
+        <v>14967</v>
       </c>
       <c r="AF14" t="n">
-        <v>16314</v>
+        <v>16033</v>
       </c>
       <c r="AG14" t="n">
-        <v>15998</v>
+        <v>15717</v>
       </c>
       <c r="AH14" t="n">
-        <v>13139</v>
+        <v>12858</v>
       </c>
       <c r="AI14" t="n">
-        <v>13280</v>
+        <v>12999</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12428</v>
+        <v>12147</v>
       </c>
       <c r="AK14" t="n">
-        <v>15263</v>
+        <v>14982</v>
       </c>
       <c r="AL14" t="n">
-        <v>14139</v>
+        <v>13858</v>
       </c>
       <c r="AM14" t="n">
-        <v>14321</v>
+        <v>14040</v>
       </c>
       <c r="AN14" t="n">
-        <v>14139</v>
+        <v>13858</v>
       </c>
       <c r="AO14" t="n">
-        <v>13533</v>
+        <v>13252</v>
       </c>
       <c r="AP14" t="n">
-        <v>14342</v>
+        <v>14061</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15580</v>
+        <v>15299</v>
       </c>
       <c r="AR14" t="n">
-        <v>12904</v>
+        <v>12623</v>
       </c>
       <c r="AS14" t="n">
-        <v>14077</v>
+        <v>13796</v>
       </c>
       <c r="AT14" t="n">
-        <v>12428</v>
+        <v>12147</v>
       </c>
       <c r="AU14" t="n">
-        <v>14321</v>
+        <v>14040</v>
       </c>
       <c r="AV14" t="n">
-        <v>14052</v>
+        <v>13771</v>
       </c>
       <c r="AW14" t="n">
-        <v>13140</v>
+        <v>12859</v>
       </c>
       <c r="AX14" t="n">
-        <v>9642</v>
+        <v>9127</v>
       </c>
       <c r="AY14" t="n">
         <v>12428</v>
@@ -9131,7 +9131,7 @@
         <v>10806</v>
       </c>
       <c r="BE14" t="n">
-        <v>13940</v>
+        <v>13948</v>
       </c>
       <c r="BF14" t="n">
         <v>9623</v>
@@ -9275,7 +9275,7 @@
         <v>3763</v>
       </c>
       <c r="DA14" t="n">
-        <v>5527</v>
+        <v>5012</v>
       </c>
       <c r="DB14" t="n">
         <v>3994</v>
@@ -9287,7 +9287,7 @@
         <v>3561</v>
       </c>
       <c r="DE14" t="n">
-        <v>5586</v>
+        <v>5071</v>
       </c>
       <c r="DF14" t="n">
         <v>4694</v>
@@ -9296,7 +9296,7 @@
         <v>3671</v>
       </c>
       <c r="DH14" t="n">
-        <v>6277</v>
+        <v>5996</v>
       </c>
       <c r="DI14" t="n">
         <v>3858</v>
@@ -9323,7 +9323,7 @@
         <v>1925</v>
       </c>
       <c r="DQ14" t="n">
-        <v>5586</v>
+        <v>5071</v>
       </c>
       <c r="DR14" t="n">
         <v>1145</v>
@@ -9350,10 +9350,10 @@
         <v>1864</v>
       </c>
       <c r="DZ14" t="n">
-        <v>6123</v>
+        <v>6076</v>
       </c>
       <c r="EA14" t="n">
-        <v>6277</v>
+        <v>5996</v>
       </c>
       <c r="EB14" t="n">
         <v>1260</v>
@@ -9413,58 +9413,58 @@
         <v>1864</v>
       </c>
       <c r="EU14" t="n">
-        <v>8569</v>
+        <v>8566</v>
       </c>
       <c r="EV14" t="n">
-        <v>10790</v>
+        <v>10787</v>
       </c>
       <c r="EW14" t="n">
-        <v>10666</v>
+        <v>10663</v>
       </c>
       <c r="EX14" t="n">
-        <v>10265</v>
+        <v>10262</v>
       </c>
       <c r="EY14" t="n">
-        <v>11487</v>
+        <v>11484</v>
       </c>
       <c r="EZ14" t="n">
-        <v>11168</v>
+        <v>11165</v>
       </c>
       <c r="FA14" t="n">
-        <v>8683</v>
+        <v>8680</v>
       </c>
       <c r="FB14" t="n">
-        <v>8569</v>
+        <v>8566</v>
       </c>
       <c r="FC14" t="n">
-        <v>10528</v>
+        <v>10525</v>
       </c>
       <c r="FD14" t="n">
-        <v>10922</v>
+        <v>11225</v>
       </c>
       <c r="FE14" t="n">
-        <v>10528</v>
+        <v>10525</v>
       </c>
       <c r="FF14" t="n">
-        <v>13221</v>
+        <v>13218</v>
       </c>
       <c r="FG14" t="n">
-        <v>8569</v>
+        <v>8566</v>
       </c>
       <c r="FH14" t="n">
         <v>9957</v>
       </c>
       <c r="FI14" t="n">
-        <v>10528</v>
+        <v>10525</v>
       </c>
       <c r="FJ14" t="n">
-        <v>8569</v>
+        <v>8566</v>
       </c>
       <c r="FK14" t="n">
-        <v>13221</v>
+        <v>13218</v>
       </c>
       <c r="FL14" t="n">
-        <v>10528</v>
+        <v>10525</v>
       </c>
       <c r="FM14" t="n">
         <v>12590</v>
@@ -9473,16 +9473,16 @@
         <v>12590</v>
       </c>
       <c r="FO14" t="n">
-        <v>8416</v>
+        <v>8719</v>
       </c>
       <c r="FP14" t="n">
-        <v>13792</v>
+        <v>13789</v>
       </c>
       <c r="FQ14" t="n">
         <v>10917</v>
       </c>
       <c r="FR14" t="n">
-        <v>6351</v>
+        <v>6347</v>
       </c>
       <c r="FS14" t="n">
         <v>12918</v>
@@ -9491,34 +9491,34 @@
         <v>4349</v>
       </c>
       <c r="FU14" t="n">
-        <v>12905</v>
+        <v>12902</v>
       </c>
       <c r="FV14" t="n">
         <v>11547</v>
       </c>
       <c r="FW14" t="n">
-        <v>13967</v>
+        <v>13786</v>
       </c>
       <c r="FX14" t="n">
-        <v>9113</v>
+        <v>9416</v>
       </c>
       <c r="FY14" t="n">
         <v>10588</v>
       </c>
       <c r="FZ14" t="n">
-        <v>9606</v>
+        <v>9925</v>
       </c>
       <c r="GA14" t="n">
         <v>10548</v>
       </c>
       <c r="GB14" t="n">
-        <v>13712</v>
+        <v>13709</v>
       </c>
       <c r="GC14" t="n">
-        <v>9016</v>
+        <v>9319</v>
       </c>
       <c r="GD14" t="n">
-        <v>10920</v>
+        <v>11223</v>
       </c>
       <c r="GE14" t="n">
         <v>11466</v>
@@ -9527,94 +9527,94 @@
         <v>11872</v>
       </c>
       <c r="GG14" t="n">
-        <v>9390</v>
+        <v>9693</v>
       </c>
       <c r="GH14" t="n">
-        <v>8251</v>
+        <v>8554</v>
       </c>
       <c r="GI14" t="n">
-        <v>5326</v>
+        <v>5629</v>
       </c>
       <c r="GJ14" t="n">
-        <v>9471</v>
+        <v>9774</v>
       </c>
       <c r="GK14" t="n">
-        <v>8234</v>
+        <v>8537</v>
       </c>
       <c r="GL14" t="n">
-        <v>8423</v>
+        <v>8737</v>
       </c>
       <c r="GM14" t="n">
-        <v>12428</v>
+        <v>7003</v>
       </c>
       <c r="GN14" t="n">
-        <v>12428</v>
+        <v>12282</v>
       </c>
       <c r="GO14" t="n">
-        <v>14139</v>
+        <v>9925</v>
       </c>
       <c r="GP14" t="n">
-        <v>15263</v>
+        <v>13255</v>
       </c>
       <c r="GQ14" t="n">
-        <v>13236</v>
+        <v>9610</v>
       </c>
       <c r="GR14" t="n">
-        <v>13027</v>
+        <v>5629</v>
       </c>
       <c r="GS14" t="n">
-        <v>10602</v>
+        <v>8822</v>
       </c>
       <c r="GT14" t="n">
-        <v>10152</v>
+        <v>10920</v>
       </c>
       <c r="GU14" t="n">
-        <v>9888</v>
+        <v>11554</v>
       </c>
       <c r="GV14" t="n">
-        <v>10825</v>
+        <v>9445</v>
       </c>
       <c r="GW14" t="n">
-        <v>10474</v>
+        <v>10917</v>
       </c>
       <c r="GX14" t="n">
-        <v>10390</v>
+        <v>11887</v>
       </c>
       <c r="GY14" t="n">
-        <v>0</v>
+        <v>10315</v>
       </c>
       <c r="GZ14" t="n">
-        <v>1395</v>
+        <v>11663</v>
       </c>
       <c r="HA14" t="n">
-        <v>710</v>
+        <v>11106</v>
       </c>
       <c r="HB14" t="n">
-        <v>1745</v>
+        <v>10063</v>
       </c>
       <c r="HC14" t="n">
-        <v>1116</v>
+        <v>13719</v>
       </c>
       <c r="HD14" t="n">
-        <v>1150</v>
+        <v>11487</v>
       </c>
       <c r="HE14" t="n">
-        <v>9606</v>
+        <v>10095</v>
       </c>
       <c r="HF14" t="n">
-        <v>11887</v>
+        <v>13724</v>
       </c>
       <c r="HG14" t="n">
-        <v>6277</v>
+        <v>3165</v>
       </c>
       <c r="HH14" t="n">
-        <v>11461</v>
+        <v>13385</v>
       </c>
       <c r="HI14" t="n">
-        <v>11279</v>
+        <v>9400</v>
       </c>
       <c r="HJ14" t="n">
-        <v>8582</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="15">
@@ -9631,7 +9631,7 @@
         <v>12864</v>
       </c>
       <c r="E15" t="n">
-        <v>11526</v>
+        <v>11522</v>
       </c>
       <c r="F15" t="n">
         <v>12863</v>
@@ -9664,7 +9664,7 @@
         <v>11248</v>
       </c>
       <c r="P15" t="n">
-        <v>11213</v>
+        <v>11223</v>
       </c>
       <c r="Q15" t="n">
         <v>11192</v>
@@ -9673,7 +9673,7 @@
         <v>10916</v>
       </c>
       <c r="S15" t="n">
-        <v>14192</v>
+        <v>13720</v>
       </c>
       <c r="T15" t="n">
         <v>8120</v>
@@ -9685,7 +9685,7 @@
         <v>14593</v>
       </c>
       <c r="W15" t="n">
-        <v>11526</v>
+        <v>11522</v>
       </c>
       <c r="X15" t="n">
         <v>11374</v>
@@ -9907,7 +9907,7 @@
         <v>9377</v>
       </c>
       <c r="CS15" t="n">
-        <v>8962</v>
+        <v>8779</v>
       </c>
       <c r="CT15" t="n">
         <v>9719</v>
@@ -10069,58 +10069,58 @@
         <v>1214</v>
       </c>
       <c r="EU15" t="n">
-        <v>8830</v>
+        <v>8827</v>
       </c>
       <c r="EV15" t="n">
-        <v>11051</v>
+        <v>11048</v>
       </c>
       <c r="EW15" t="n">
-        <v>10927</v>
+        <v>10924</v>
       </c>
       <c r="EX15" t="n">
-        <v>10526</v>
+        <v>10523</v>
       </c>
       <c r="EY15" t="n">
-        <v>11748</v>
+        <v>11745</v>
       </c>
       <c r="EZ15" t="n">
-        <v>11429</v>
+        <v>11426</v>
       </c>
       <c r="FA15" t="n">
-        <v>8944</v>
+        <v>8941</v>
       </c>
       <c r="FB15" t="n">
-        <v>8830</v>
+        <v>8827</v>
       </c>
       <c r="FC15" t="n">
-        <v>10789</v>
+        <v>10786</v>
       </c>
       <c r="FD15" t="n">
         <v>9751</v>
       </c>
       <c r="FE15" t="n">
-        <v>10789</v>
+        <v>10786</v>
       </c>
       <c r="FF15" t="n">
-        <v>13482</v>
+        <v>13479</v>
       </c>
       <c r="FG15" t="n">
-        <v>8830</v>
+        <v>8827</v>
       </c>
       <c r="FH15" t="n">
         <v>10218</v>
       </c>
       <c r="FI15" t="n">
-        <v>10789</v>
+        <v>10786</v>
       </c>
       <c r="FJ15" t="n">
-        <v>8830</v>
+        <v>8827</v>
       </c>
       <c r="FK15" t="n">
-        <v>13482</v>
+        <v>13479</v>
       </c>
       <c r="FL15" t="n">
-        <v>10789</v>
+        <v>10786</v>
       </c>
       <c r="FM15" t="n">
         <v>11270</v>
@@ -10138,7 +10138,7 @@
         <v>9597</v>
       </c>
       <c r="FR15" t="n">
-        <v>5448</v>
+        <v>5444</v>
       </c>
       <c r="FS15" t="n">
         <v>11598</v>
@@ -10162,7 +10162,7 @@
         <v>9268</v>
       </c>
       <c r="FZ15" t="n">
-        <v>8435</v>
+        <v>8451</v>
       </c>
       <c r="GA15" t="n">
         <v>9228</v>
@@ -10198,79 +10198,79 @@
         <v>7063</v>
       </c>
       <c r="GL15" t="n">
-        <v>7252</v>
+        <v>7263</v>
       </c>
       <c r="GM15" t="n">
-        <v>11427</v>
+        <v>5683</v>
       </c>
       <c r="GN15" t="n">
-        <v>11427</v>
+        <v>10962</v>
       </c>
       <c r="GO15" t="n">
-        <v>13138</v>
+        <v>8451</v>
       </c>
       <c r="GP15" t="n">
-        <v>14262</v>
+        <v>10007</v>
       </c>
       <c r="GQ15" t="n">
-        <v>12235</v>
+        <v>8136</v>
       </c>
       <c r="GR15" t="n">
-        <v>12026</v>
+        <v>4155</v>
       </c>
       <c r="GS15" t="n">
-        <v>9282</v>
+        <v>7348</v>
       </c>
       <c r="GT15" t="n">
-        <v>8832</v>
+        <v>9600</v>
       </c>
       <c r="GU15" t="n">
-        <v>8568</v>
+        <v>10234</v>
       </c>
       <c r="GV15" t="n">
-        <v>9505</v>
+        <v>8125</v>
       </c>
       <c r="GW15" t="n">
-        <v>9154</v>
+        <v>9597</v>
       </c>
       <c r="GX15" t="n">
-        <v>9070</v>
+        <v>10567</v>
       </c>
       <c r="GY15" t="n">
-        <v>1426</v>
+        <v>10576</v>
       </c>
       <c r="GZ15" t="n">
-        <v>0</v>
+        <v>10343</v>
       </c>
       <c r="HA15" t="n">
-        <v>1453</v>
+        <v>9786</v>
       </c>
       <c r="HB15" t="n">
-        <v>1241</v>
+        <v>8743</v>
       </c>
       <c r="HC15" t="n">
-        <v>947</v>
+        <v>9783</v>
       </c>
       <c r="HD15" t="n">
-        <v>730</v>
+        <v>10167</v>
       </c>
       <c r="HE15" t="n">
-        <v>8435</v>
+        <v>10356</v>
       </c>
       <c r="HF15" t="n">
-        <v>10567</v>
+        <v>9826</v>
       </c>
       <c r="HG15" t="n">
-        <v>6644</v>
+        <v>2941</v>
       </c>
       <c r="HH15" t="n">
-        <v>10141</v>
+        <v>12065</v>
       </c>
       <c r="HI15" t="n">
-        <v>9384</v>
+        <v>8080</v>
       </c>
       <c r="HJ15" t="n">
-        <v>7411</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="16">
@@ -10320,7 +10320,7 @@
         <v>12476</v>
       </c>
       <c r="P16" t="n">
-        <v>12441</v>
+        <v>12451</v>
       </c>
       <c r="Q16" t="n">
         <v>12420</v>
@@ -10329,7 +10329,7 @@
         <v>12144</v>
       </c>
       <c r="S16" t="n">
-        <v>15420</v>
+        <v>14948</v>
       </c>
       <c r="T16" t="n">
         <v>9348</v>
@@ -10356,7 +10356,7 @@
         <v>14425</v>
       </c>
       <c r="AB16" t="n">
-        <v>13923</v>
+        <v>13670</v>
       </c>
       <c r="AC16" t="n">
         <v>12079</v>
@@ -10422,7 +10422,7 @@
         <v>13367</v>
       </c>
       <c r="AX16" t="n">
-        <v>9890</v>
+        <v>9403</v>
       </c>
       <c r="AY16" t="n">
         <v>12336</v>
@@ -10443,7 +10443,7 @@
         <v>10714</v>
       </c>
       <c r="BE16" t="n">
-        <v>13848</v>
+        <v>13856</v>
       </c>
       <c r="BF16" t="n">
         <v>9531</v>
@@ -10563,7 +10563,7 @@
         <v>10605</v>
       </c>
       <c r="CS16" t="n">
-        <v>10190</v>
+        <v>10007</v>
       </c>
       <c r="CT16" t="n">
         <v>10947</v>
@@ -10575,49 +10575,49 @@
         <v>9759</v>
       </c>
       <c r="CW16" t="n">
-        <v>9453</v>
+        <v>9481</v>
       </c>
       <c r="CX16" t="n">
-        <v>4147</v>
+        <v>4175</v>
       </c>
       <c r="CY16" t="n">
-        <v>4246</v>
+        <v>4274</v>
       </c>
       <c r="CZ16" t="n">
-        <v>4011</v>
+        <v>4039</v>
       </c>
       <c r="DA16" t="n">
-        <v>5775</v>
+        <v>5288</v>
       </c>
       <c r="DB16" t="n">
-        <v>4242</v>
+        <v>4270</v>
       </c>
       <c r="DC16" t="n">
-        <v>5131</v>
+        <v>5159</v>
       </c>
       <c r="DD16" t="n">
-        <v>3809</v>
+        <v>3837</v>
       </c>
       <c r="DE16" t="n">
-        <v>5834</v>
+        <v>5347</v>
       </c>
       <c r="DF16" t="n">
-        <v>4942</v>
+        <v>4970</v>
       </c>
       <c r="DG16" t="n">
-        <v>3919</v>
+        <v>3947</v>
       </c>
       <c r="DH16" t="n">
-        <v>6525</v>
+        <v>6272</v>
       </c>
       <c r="DI16" t="n">
-        <v>4106</v>
+        <v>4134</v>
       </c>
       <c r="DJ16" t="n">
-        <v>3769</v>
+        <v>3797</v>
       </c>
       <c r="DK16" t="n">
-        <v>3991</v>
+        <v>4019</v>
       </c>
       <c r="DL16" t="n">
         <v>2784</v>
@@ -10626,7 +10626,7 @@
         <v>1525</v>
       </c>
       <c r="DN16" t="n">
-        <v>3981</v>
+        <v>4009</v>
       </c>
       <c r="DO16" t="n">
         <v>1159</v>
@@ -10635,7 +10635,7 @@
         <v>2142</v>
       </c>
       <c r="DQ16" t="n">
-        <v>5834</v>
+        <v>5347</v>
       </c>
       <c r="DR16" t="n">
         <v>465</v>
@@ -10662,10 +10662,10 @@
         <v>2081</v>
       </c>
       <c r="DZ16" t="n">
-        <v>6371</v>
+        <v>6352</v>
       </c>
       <c r="EA16" t="n">
-        <v>6525</v>
+        <v>6272</v>
       </c>
       <c r="EB16" t="n">
         <v>926</v>
@@ -10674,7 +10674,7 @@
         <v>1292</v>
       </c>
       <c r="ED16" t="n">
-        <v>4354</v>
+        <v>4382</v>
       </c>
       <c r="EE16" t="n">
         <v>1132</v>
@@ -10686,7 +10686,7 @@
         <v>1521</v>
       </c>
       <c r="EH16" t="n">
-        <v>4126</v>
+        <v>4154</v>
       </c>
       <c r="EI16" t="n">
         <v>534</v>
@@ -10698,7 +10698,7 @@
         <v>1539</v>
       </c>
       <c r="EL16" t="n">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="EM16" t="n">
         <v>977</v>
@@ -10713,7 +10713,7 @@
         <v>1682</v>
       </c>
       <c r="EQ16" t="n">
-        <v>4359</v>
+        <v>4387</v>
       </c>
       <c r="ER16" t="n">
         <v>766</v>
@@ -10725,58 +10725,58 @@
         <v>2081</v>
       </c>
       <c r="EU16" t="n">
-        <v>7973</v>
+        <v>7970</v>
       </c>
       <c r="EV16" t="n">
-        <v>10194</v>
+        <v>10191</v>
       </c>
       <c r="EW16" t="n">
-        <v>10070</v>
+        <v>10067</v>
       </c>
       <c r="EX16" t="n">
-        <v>9669</v>
+        <v>9666</v>
       </c>
       <c r="EY16" t="n">
-        <v>10891</v>
+        <v>10888</v>
       </c>
       <c r="EZ16" t="n">
-        <v>10572</v>
+        <v>10569</v>
       </c>
       <c r="FA16" t="n">
-        <v>8087</v>
+        <v>8084</v>
       </c>
       <c r="FB16" t="n">
-        <v>7973</v>
+        <v>7970</v>
       </c>
       <c r="FC16" t="n">
-        <v>9932</v>
+        <v>9929</v>
       </c>
       <c r="FD16" t="n">
-        <v>10814</v>
+        <v>13239</v>
       </c>
       <c r="FE16" t="n">
-        <v>9932</v>
+        <v>9929</v>
       </c>
       <c r="FF16" t="n">
-        <v>12625</v>
+        <v>12622</v>
       </c>
       <c r="FG16" t="n">
-        <v>7973</v>
+        <v>7970</v>
       </c>
       <c r="FH16" t="n">
         <v>9361</v>
       </c>
       <c r="FI16" t="n">
-        <v>9932</v>
+        <v>9929</v>
       </c>
       <c r="FJ16" t="n">
-        <v>7973</v>
+        <v>7970</v>
       </c>
       <c r="FK16" t="n">
-        <v>12625</v>
+        <v>12622</v>
       </c>
       <c r="FL16" t="n">
-        <v>9932</v>
+        <v>9929</v>
       </c>
       <c r="FM16" t="n">
         <v>12498</v>
@@ -10788,13 +10788,13 @@
         <v>8308</v>
       </c>
       <c r="FP16" t="n">
-        <v>13196</v>
+        <v>13193</v>
       </c>
       <c r="FQ16" t="n">
-        <v>13354</v>
+        <v>13351</v>
       </c>
       <c r="FR16" t="n">
-        <v>6243</v>
+        <v>6239</v>
       </c>
       <c r="FS16" t="n">
         <v>12826</v>
@@ -10803,13 +10803,13 @@
         <v>3753</v>
       </c>
       <c r="FU16" t="n">
-        <v>12309</v>
+        <v>12306</v>
       </c>
       <c r="FV16" t="n">
-        <v>13912</v>
+        <v>13909</v>
       </c>
       <c r="FW16" t="n">
-        <v>13371</v>
+        <v>13190</v>
       </c>
       <c r="FX16" t="n">
         <v>9005</v>
@@ -10818,25 +10818,25 @@
         <v>10496</v>
       </c>
       <c r="FZ16" t="n">
-        <v>9498</v>
+        <v>9514</v>
       </c>
       <c r="GA16" t="n">
         <v>10456</v>
       </c>
       <c r="GB16" t="n">
-        <v>13116</v>
+        <v>13113</v>
       </c>
       <c r="GC16" t="n">
         <v>8908</v>
       </c>
       <c r="GD16" t="n">
-        <v>12757</v>
+        <v>12754</v>
       </c>
       <c r="GE16" t="n">
-        <v>13831</v>
+        <v>13828</v>
       </c>
       <c r="GF16" t="n">
-        <v>14062</v>
+        <v>14059</v>
       </c>
       <c r="GG16" t="n">
         <v>9282</v>
@@ -10857,76 +10857,76 @@
         <v>8315</v>
       </c>
       <c r="GM16" t="n">
-        <v>12655</v>
+        <v>6911</v>
       </c>
       <c r="GN16" t="n">
-        <v>12655</v>
+        <v>14644</v>
       </c>
       <c r="GO16" t="n">
-        <v>14366</v>
+        <v>9514</v>
       </c>
       <c r="GP16" t="n">
-        <v>15490</v>
+        <v>12659</v>
       </c>
       <c r="GQ16" t="n">
-        <v>13463</v>
+        <v>9199</v>
       </c>
       <c r="GR16" t="n">
-        <v>13254</v>
+        <v>5218</v>
       </c>
       <c r="GS16" t="n">
-        <v>10510</v>
+        <v>8411</v>
       </c>
       <c r="GT16" t="n">
-        <v>10060</v>
+        <v>13354</v>
       </c>
       <c r="GU16" t="n">
-        <v>9796</v>
+        <v>11462</v>
       </c>
       <c r="GV16" t="n">
-        <v>10733</v>
+        <v>9353</v>
       </c>
       <c r="GW16" t="n">
-        <v>10382</v>
+        <v>13351</v>
       </c>
       <c r="GX16" t="n">
-        <v>10298</v>
+        <v>14346</v>
       </c>
       <c r="GY16" t="n">
-        <v>430</v>
+        <v>9719</v>
       </c>
       <c r="GZ16" t="n">
-        <v>1314</v>
+        <v>14025</v>
       </c>
       <c r="HA16" t="n">
-        <v>0</v>
+        <v>13540</v>
       </c>
       <c r="HB16" t="n">
-        <v>1962</v>
+        <v>9971</v>
       </c>
       <c r="HC16" t="n">
-        <v>764</v>
+        <v>13123</v>
       </c>
       <c r="HD16" t="n">
-        <v>1246</v>
+        <v>11395</v>
       </c>
       <c r="HE16" t="n">
-        <v>9498</v>
+        <v>9499</v>
       </c>
       <c r="HF16" t="n">
-        <v>14349</v>
+        <v>13128</v>
       </c>
       <c r="HG16" t="n">
-        <v>6525</v>
+        <v>3382</v>
       </c>
       <c r="HH16" t="n">
-        <v>13898</v>
+        <v>16023</v>
       </c>
       <c r="HI16" t="n">
-        <v>10683</v>
+        <v>9308</v>
       </c>
       <c r="HJ16" t="n">
-        <v>8474</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="17">
@@ -10943,7 +10943,7 @@
         <v>12775</v>
       </c>
       <c r="E17" t="n">
-        <v>11437</v>
+        <v>11433</v>
       </c>
       <c r="F17" t="n">
         <v>12774</v>
@@ -10976,7 +10976,7 @@
         <v>11159</v>
       </c>
       <c r="P17" t="n">
-        <v>11124</v>
+        <v>11134</v>
       </c>
       <c r="Q17" t="n">
         <v>11103</v>
@@ -10985,7 +10985,7 @@
         <v>10827</v>
       </c>
       <c r="S17" t="n">
-        <v>14103</v>
+        <v>13631</v>
       </c>
       <c r="T17" t="n">
         <v>8031</v>
@@ -10997,7 +10997,7 @@
         <v>14504</v>
       </c>
       <c r="W17" t="n">
-        <v>11437</v>
+        <v>11433</v>
       </c>
       <c r="X17" t="n">
         <v>11285</v>
@@ -11078,7 +11078,7 @@
         <v>12050</v>
       </c>
       <c r="AX17" t="n">
-        <v>11306</v>
+        <v>8859</v>
       </c>
       <c r="AY17" t="n">
         <v>11019</v>
@@ -11219,7 +11219,7 @@
         <v>9288</v>
       </c>
       <c r="CS17" t="n">
-        <v>8873</v>
+        <v>8690</v>
       </c>
       <c r="CT17" t="n">
         <v>9630</v>
@@ -11381,58 +11381,58 @@
         <v>133</v>
       </c>
       <c r="EU17" t="n">
-        <v>9683</v>
+        <v>9680</v>
       </c>
       <c r="EV17" t="n">
-        <v>11904</v>
+        <v>11901</v>
       </c>
       <c r="EW17" t="n">
-        <v>11780</v>
+        <v>11777</v>
       </c>
       <c r="EX17" t="n">
-        <v>11379</v>
+        <v>11376</v>
       </c>
       <c r="EY17" t="n">
-        <v>12601</v>
+        <v>12598</v>
       </c>
       <c r="EZ17" t="n">
-        <v>12282</v>
+        <v>12279</v>
       </c>
       <c r="FA17" t="n">
-        <v>9797</v>
+        <v>9794</v>
       </c>
       <c r="FB17" t="n">
-        <v>9683</v>
+        <v>9680</v>
       </c>
       <c r="FC17" t="n">
-        <v>11642</v>
+        <v>11639</v>
       </c>
       <c r="FD17" t="n">
         <v>9692</v>
       </c>
       <c r="FE17" t="n">
-        <v>11642</v>
+        <v>11639</v>
       </c>
       <c r="FF17" t="n">
-        <v>14335</v>
+        <v>14332</v>
       </c>
       <c r="FG17" t="n">
-        <v>9683</v>
+        <v>9680</v>
       </c>
       <c r="FH17" t="n">
         <v>11071</v>
       </c>
       <c r="FI17" t="n">
-        <v>11642</v>
+        <v>11639</v>
       </c>
       <c r="FJ17" t="n">
-        <v>9683</v>
+        <v>9680</v>
       </c>
       <c r="FK17" t="n">
-        <v>14335</v>
+        <v>14332</v>
       </c>
       <c r="FL17" t="n">
-        <v>11642</v>
+        <v>11639</v>
       </c>
       <c r="FM17" t="n">
         <v>11181</v>
@@ -11450,7 +11450,7 @@
         <v>9508</v>
       </c>
       <c r="FR17" t="n">
-        <v>6593</v>
+        <v>6589</v>
       </c>
       <c r="FS17" t="n">
         <v>11509</v>
@@ -11474,7 +11474,7 @@
         <v>9179</v>
       </c>
       <c r="FZ17" t="n">
-        <v>8376</v>
+        <v>8392</v>
       </c>
       <c r="GA17" t="n">
         <v>9139</v>
@@ -11510,79 +11510,79 @@
         <v>7004</v>
       </c>
       <c r="GL17" t="n">
-        <v>7193</v>
+        <v>7204</v>
       </c>
       <c r="GM17" t="n">
-        <v>11338</v>
+        <v>5594</v>
       </c>
       <c r="GN17" t="n">
-        <v>11338</v>
+        <v>10873</v>
       </c>
       <c r="GO17" t="n">
-        <v>13049</v>
+        <v>8392</v>
       </c>
       <c r="GP17" t="n">
-        <v>14173</v>
+        <v>9948</v>
       </c>
       <c r="GQ17" t="n">
-        <v>12146</v>
+        <v>8077</v>
       </c>
       <c r="GR17" t="n">
-        <v>11937</v>
+        <v>4096</v>
       </c>
       <c r="GS17" t="n">
-        <v>9193</v>
+        <v>7289</v>
       </c>
       <c r="GT17" t="n">
-        <v>8743</v>
+        <v>9511</v>
       </c>
       <c r="GU17" t="n">
-        <v>8479</v>
+        <v>10145</v>
       </c>
       <c r="GV17" t="n">
-        <v>9416</v>
+        <v>8036</v>
       </c>
       <c r="GW17" t="n">
-        <v>9065</v>
+        <v>9508</v>
       </c>
       <c r="GX17" t="n">
-        <v>8981</v>
+        <v>10478</v>
       </c>
       <c r="GY17" t="n">
-        <v>1737</v>
+        <v>11429</v>
       </c>
       <c r="GZ17" t="n">
-        <v>1637</v>
+        <v>10254</v>
       </c>
       <c r="HA17" t="n">
-        <v>1970</v>
+        <v>9697</v>
       </c>
       <c r="HB17" t="n">
-        <v>0</v>
+        <v>8654</v>
       </c>
       <c r="HC17" t="n">
-        <v>2117</v>
+        <v>9694</v>
       </c>
       <c r="HD17" t="n">
-        <v>1444</v>
+        <v>10078</v>
       </c>
       <c r="HE17" t="n">
-        <v>8376</v>
+        <v>11209</v>
       </c>
       <c r="HF17" t="n">
-        <v>10478</v>
+        <v>9737</v>
       </c>
       <c r="HG17" t="n">
-        <v>5821</v>
+        <v>1632</v>
       </c>
       <c r="HH17" t="n">
-        <v>10052</v>
+        <v>11976</v>
       </c>
       <c r="HI17" t="n">
-        <v>9325</v>
+        <v>7991</v>
       </c>
       <c r="HJ17" t="n">
-        <v>7352</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="18">
@@ -11599,7 +11599,7 @@
         <v>13731</v>
       </c>
       <c r="E18" t="n">
-        <v>12393</v>
+        <v>12389</v>
       </c>
       <c r="F18" t="n">
         <v>13730</v>
@@ -11632,7 +11632,7 @@
         <v>12115</v>
       </c>
       <c r="P18" t="n">
-        <v>12080</v>
+        <v>12090</v>
       </c>
       <c r="Q18" t="n">
         <v>12059</v>
@@ -11641,7 +11641,7 @@
         <v>11783</v>
       </c>
       <c r="S18" t="n">
-        <v>15059</v>
+        <v>14587</v>
       </c>
       <c r="T18" t="n">
         <v>8987</v>
@@ -11653,7 +11653,7 @@
         <v>15460</v>
       </c>
       <c r="W18" t="n">
-        <v>12393</v>
+        <v>12389</v>
       </c>
       <c r="X18" t="n">
         <v>12241</v>
@@ -11734,7 +11734,7 @@
         <v>13006</v>
       </c>
       <c r="AX18" t="n">
-        <v>10278</v>
+        <v>9763</v>
       </c>
       <c r="AY18" t="n">
         <v>11975</v>
@@ -11755,7 +11755,7 @@
         <v>10353</v>
       </c>
       <c r="BE18" t="n">
-        <v>13487</v>
+        <v>13495</v>
       </c>
       <c r="BF18" t="n">
         <v>9170</v>
@@ -11875,7 +11875,7 @@
         <v>10244</v>
       </c>
       <c r="CS18" t="n">
-        <v>9829</v>
+        <v>9646</v>
       </c>
       <c r="CT18" t="n">
         <v>10586</v>
@@ -11899,7 +11899,7 @@
         <v>4399</v>
       </c>
       <c r="DA18" t="n">
-        <v>6163</v>
+        <v>5648</v>
       </c>
       <c r="DB18" t="n">
         <v>4630</v>
@@ -11911,7 +11911,7 @@
         <v>4197</v>
       </c>
       <c r="DE18" t="n">
-        <v>6222</v>
+        <v>5707</v>
       </c>
       <c r="DF18" t="n">
         <v>5330</v>
@@ -11947,7 +11947,7 @@
         <v>2942</v>
       </c>
       <c r="DQ18" t="n">
-        <v>6222</v>
+        <v>5707</v>
       </c>
       <c r="DR18" t="n">
         <v>598</v>
@@ -11974,7 +11974,7 @@
         <v>2081</v>
       </c>
       <c r="DZ18" t="n">
-        <v>7227</v>
+        <v>6712</v>
       </c>
       <c r="EA18" t="n">
         <v>7511</v>
@@ -12037,58 +12037,58 @@
         <v>2081</v>
       </c>
       <c r="EU18" t="n">
-        <v>7847</v>
+        <v>7844</v>
       </c>
       <c r="EV18" t="n">
-        <v>10068</v>
+        <v>10065</v>
       </c>
       <c r="EW18" t="n">
-        <v>9944</v>
+        <v>9941</v>
       </c>
       <c r="EX18" t="n">
-        <v>9543</v>
+        <v>9540</v>
       </c>
       <c r="EY18" t="n">
-        <v>10765</v>
+        <v>10762</v>
       </c>
       <c r="EZ18" t="n">
-        <v>10446</v>
+        <v>10443</v>
       </c>
       <c r="FA18" t="n">
-        <v>7961</v>
+        <v>7958</v>
       </c>
       <c r="FB18" t="n">
-        <v>7847</v>
+        <v>7844</v>
       </c>
       <c r="FC18" t="n">
-        <v>9806</v>
+        <v>9803</v>
       </c>
       <c r="FD18" t="n">
         <v>10065</v>
       </c>
       <c r="FE18" t="n">
-        <v>9806</v>
+        <v>9803</v>
       </c>
       <c r="FF18" t="n">
-        <v>12499</v>
+        <v>12496</v>
       </c>
       <c r="FG18" t="n">
-        <v>7847</v>
+        <v>7844</v>
       </c>
       <c r="FH18" t="n">
         <v>9235</v>
       </c>
       <c r="FI18" t="n">
-        <v>9806</v>
+        <v>9803</v>
       </c>
       <c r="FJ18" t="n">
-        <v>7847</v>
+        <v>7844</v>
       </c>
       <c r="FK18" t="n">
-        <v>12499</v>
+        <v>12496</v>
       </c>
       <c r="FL18" t="n">
-        <v>9806</v>
+        <v>9803</v>
       </c>
       <c r="FM18" t="n">
         <v>12137</v>
@@ -12100,13 +12100,13 @@
         <v>7559</v>
       </c>
       <c r="FP18" t="n">
-        <v>13070</v>
+        <v>13067</v>
       </c>
       <c r="FQ18" t="n">
         <v>10464</v>
       </c>
       <c r="FR18" t="n">
-        <v>5494</v>
+        <v>5490</v>
       </c>
       <c r="FS18" t="n">
         <v>12465</v>
@@ -12115,13 +12115,13 @@
         <v>3627</v>
       </c>
       <c r="FU18" t="n">
-        <v>12183</v>
+        <v>12180</v>
       </c>
       <c r="FV18" t="n">
-        <v>13786</v>
+        <v>13783</v>
       </c>
       <c r="FW18" t="n">
-        <v>13245</v>
+        <v>13064</v>
       </c>
       <c r="FX18" t="n">
         <v>8256</v>
@@ -12130,13 +12130,13 @@
         <v>10135</v>
       </c>
       <c r="FZ18" t="n">
-        <v>8749</v>
+        <v>8765</v>
       </c>
       <c r="GA18" t="n">
         <v>10095</v>
       </c>
       <c r="GB18" t="n">
-        <v>12990</v>
+        <v>12987</v>
       </c>
       <c r="GC18" t="n">
         <v>8159</v>
@@ -12145,10 +12145,10 @@
         <v>10063</v>
       </c>
       <c r="GE18" t="n">
-        <v>13705</v>
+        <v>13702</v>
       </c>
       <c r="GF18" t="n">
-        <v>13936</v>
+        <v>13933</v>
       </c>
       <c r="GG18" t="n">
         <v>8533</v>
@@ -12166,79 +12166,79 @@
         <v>7377</v>
       </c>
       <c r="GL18" t="n">
-        <v>7566</v>
+        <v>7577</v>
       </c>
       <c r="GM18" t="n">
-        <v>12294</v>
+        <v>6550</v>
       </c>
       <c r="GN18" t="n">
-        <v>12294</v>
+        <v>14518</v>
       </c>
       <c r="GO18" t="n">
-        <v>14005</v>
+        <v>8765</v>
       </c>
       <c r="GP18" t="n">
-        <v>15129</v>
+        <v>12533</v>
       </c>
       <c r="GQ18" t="n">
-        <v>13102</v>
+        <v>8450</v>
       </c>
       <c r="GR18" t="n">
-        <v>12893</v>
+        <v>4469</v>
       </c>
       <c r="GS18" t="n">
-        <v>10149</v>
+        <v>7662</v>
       </c>
       <c r="GT18" t="n">
-        <v>9699</v>
+        <v>10467</v>
       </c>
       <c r="GU18" t="n">
-        <v>9435</v>
+        <v>11101</v>
       </c>
       <c r="GV18" t="n">
-        <v>10372</v>
+        <v>8992</v>
       </c>
       <c r="GW18" t="n">
-        <v>10021</v>
+        <v>10464</v>
       </c>
       <c r="GX18" t="n">
-        <v>9937</v>
+        <v>14220</v>
       </c>
       <c r="GY18" t="n">
-        <v>828</v>
+        <v>9593</v>
       </c>
       <c r="GZ18" t="n">
-        <v>953</v>
+        <v>13899</v>
       </c>
       <c r="HA18" t="n">
-        <v>757</v>
+        <v>10653</v>
       </c>
       <c r="HB18" t="n">
-        <v>2108</v>
+        <v>9610</v>
       </c>
       <c r="HC18" t="n">
-        <v>0</v>
+        <v>12997</v>
       </c>
       <c r="HD18" t="n">
-        <v>1537</v>
+        <v>11034</v>
       </c>
       <c r="HE18" t="n">
-        <v>8749</v>
+        <v>9373</v>
       </c>
       <c r="HF18" t="n">
-        <v>14223</v>
+        <v>13002</v>
       </c>
       <c r="HG18" t="n">
-        <v>7511</v>
+        <v>3808</v>
       </c>
       <c r="HH18" t="n">
-        <v>11008</v>
+        <v>12932</v>
       </c>
       <c r="HI18" t="n">
-        <v>10557</v>
+        <v>8045</v>
       </c>
       <c r="HJ18" t="n">
-        <v>7725</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="19">
@@ -12288,7 +12288,7 @@
         <v>11496</v>
       </c>
       <c r="P19" t="n">
-        <v>11461</v>
+        <v>11471</v>
       </c>
       <c r="Q19" t="n">
         <v>11440</v>
@@ -12297,7 +12297,7 @@
         <v>11164</v>
       </c>
       <c r="S19" t="n">
-        <v>14440</v>
+        <v>13968</v>
       </c>
       <c r="T19" t="n">
         <v>8368</v>
@@ -12588,7 +12588,7 @@
         <v>4134</v>
       </c>
       <c r="DL19" t="n">
-        <v>2313</v>
+        <v>2238</v>
       </c>
       <c r="DM19" t="n">
         <v>422</v>
@@ -12600,7 +12600,7 @@
         <v>553</v>
       </c>
       <c r="DP19" t="n">
-        <v>1671</v>
+        <v>1596</v>
       </c>
       <c r="DQ19" t="n">
         <v>5462</v>
@@ -12615,7 +12615,7 @@
         <v>588</v>
       </c>
       <c r="DU19" t="n">
-        <v>2837</v>
+        <v>2762</v>
       </c>
       <c r="DV19" t="n">
         <v>1320</v>
@@ -12630,7 +12630,7 @@
         <v>1462</v>
       </c>
       <c r="DZ19" t="n">
-        <v>5999</v>
+        <v>6467</v>
       </c>
       <c r="EA19" t="n">
         <v>5760</v>
@@ -12657,7 +12657,7 @@
         <v>4269</v>
       </c>
       <c r="EI19" t="n">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="EJ19" t="n">
         <v>432</v>
@@ -12669,13 +12669,13 @@
         <v>763</v>
       </c>
       <c r="EM19" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="EN19" t="n">
-        <v>1203</v>
+        <v>1128</v>
       </c>
       <c r="EO19" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="EP19" t="n">
         <v>606</v>
@@ -12693,58 +12693,58 @@
         <v>1462</v>
       </c>
       <c r="EU19" t="n">
-        <v>8633</v>
+        <v>8630</v>
       </c>
       <c r="EV19" t="n">
-        <v>10854</v>
+        <v>10851</v>
       </c>
       <c r="EW19" t="n">
-        <v>10730</v>
+        <v>10727</v>
       </c>
       <c r="EX19" t="n">
-        <v>10329</v>
+        <v>10326</v>
       </c>
       <c r="EY19" t="n">
-        <v>11551</v>
+        <v>11548</v>
       </c>
       <c r="EZ19" t="n">
-        <v>11232</v>
+        <v>11229</v>
       </c>
       <c r="FA19" t="n">
-        <v>8747</v>
+        <v>8744</v>
       </c>
       <c r="FB19" t="n">
-        <v>8633</v>
+        <v>8630</v>
       </c>
       <c r="FC19" t="n">
-        <v>10592</v>
+        <v>10589</v>
       </c>
       <c r="FD19" t="n">
         <v>10114</v>
       </c>
       <c r="FE19" t="n">
-        <v>10592</v>
+        <v>10589</v>
       </c>
       <c r="FF19" t="n">
-        <v>13285</v>
+        <v>13282</v>
       </c>
       <c r="FG19" t="n">
-        <v>8633</v>
+        <v>8630</v>
       </c>
       <c r="FH19" t="n">
         <v>10021</v>
       </c>
       <c r="FI19" t="n">
-        <v>10592</v>
+        <v>10589</v>
       </c>
       <c r="FJ19" t="n">
-        <v>8633</v>
+        <v>8630</v>
       </c>
       <c r="FK19" t="n">
-        <v>13285</v>
+        <v>13282</v>
       </c>
       <c r="FL19" t="n">
-        <v>10592</v>
+        <v>10589</v>
       </c>
       <c r="FM19" t="n">
         <v>11518</v>
@@ -12762,7 +12762,7 @@
         <v>9845</v>
       </c>
       <c r="FR19" t="n">
-        <v>5543</v>
+        <v>5539</v>
       </c>
       <c r="FS19" t="n">
         <v>11846</v>
@@ -12786,7 +12786,7 @@
         <v>9516</v>
       </c>
       <c r="FZ19" t="n">
-        <v>8798</v>
+        <v>8814</v>
       </c>
       <c r="GA19" t="n">
         <v>9476</v>
@@ -12822,79 +12822,79 @@
         <v>7426</v>
       </c>
       <c r="GL19" t="n">
-        <v>7615</v>
+        <v>7626</v>
       </c>
       <c r="GM19" t="n">
-        <v>11675</v>
+        <v>5931</v>
       </c>
       <c r="GN19" t="n">
-        <v>11675</v>
+        <v>11210</v>
       </c>
       <c r="GO19" t="n">
-        <v>13386</v>
+        <v>8814</v>
       </c>
       <c r="GP19" t="n">
-        <v>14510</v>
+        <v>10370</v>
       </c>
       <c r="GQ19" t="n">
-        <v>12483</v>
+        <v>8499</v>
       </c>
       <c r="GR19" t="n">
-        <v>12274</v>
+        <v>4518</v>
       </c>
       <c r="GS19" t="n">
-        <v>9530</v>
+        <v>7711</v>
       </c>
       <c r="GT19" t="n">
-        <v>9080</v>
+        <v>9848</v>
       </c>
       <c r="GU19" t="n">
-        <v>8816</v>
+        <v>10482</v>
       </c>
       <c r="GV19" t="n">
-        <v>9753</v>
+        <v>8373</v>
       </c>
       <c r="GW19" t="n">
-        <v>9402</v>
+        <v>9845</v>
       </c>
       <c r="GX19" t="n">
-        <v>9318</v>
+        <v>10815</v>
       </c>
       <c r="GY19" t="n">
-        <v>1160</v>
+        <v>10379</v>
       </c>
       <c r="GZ19" t="n">
-        <v>587</v>
+        <v>10591</v>
       </c>
       <c r="HA19" t="n">
-        <v>1394</v>
+        <v>10034</v>
       </c>
       <c r="HB19" t="n">
-        <v>1491</v>
+        <v>8991</v>
       </c>
       <c r="HC19" t="n">
-        <v>1067</v>
+        <v>10031</v>
       </c>
       <c r="HD19" t="n">
-        <v>0</v>
+        <v>10415</v>
       </c>
       <c r="HE19" t="n">
-        <v>8798</v>
+        <v>10159</v>
       </c>
       <c r="HF19" t="n">
-        <v>10815</v>
+        <v>10074</v>
       </c>
       <c r="HG19" t="n">
-        <v>5760</v>
+        <v>2836</v>
       </c>
       <c r="HH19" t="n">
-        <v>10389</v>
+        <v>12313</v>
       </c>
       <c r="HI19" t="n">
-        <v>11343</v>
+        <v>8328</v>
       </c>
       <c r="HJ19" t="n">
-        <v>7774</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="20">
@@ -12920,7 +12920,7 @@
         <v>17852</v>
       </c>
       <c r="H20" t="n">
-        <v>17374</v>
+        <v>17296</v>
       </c>
       <c r="I20" t="n">
         <v>18735</v>
@@ -12977,7 +12977,7 @@
         <v>19113</v>
       </c>
       <c r="AA20" t="n">
-        <v>18438</v>
+        <v>17212</v>
       </c>
       <c r="AB20" t="n">
         <v>21678</v>
@@ -13418,7 +13418,7 @@
         <v>3109</v>
       </c>
       <c r="FR20" t="n">
-        <v>7317</v>
+        <v>7326</v>
       </c>
       <c r="FS20" t="n">
         <v>6431</v>
@@ -13433,7 +13433,7 @@
         <v>3667</v>
       </c>
       <c r="FW20" t="n">
-        <v>3126</v>
+        <v>2948</v>
       </c>
       <c r="FX20" t="n">
         <v>581</v>
@@ -13481,81 +13481,81 @@
         <v>1179</v>
       </c>
       <c r="GM20" t="n">
-        <v>16350</v>
+        <v>11628</v>
       </c>
       <c r="GN20" t="n">
-        <v>16350</v>
+        <v>4402</v>
       </c>
       <c r="GO20" t="n">
-        <v>17437</v>
+        <v>0</v>
       </c>
       <c r="GP20" t="n">
-        <v>19082</v>
+        <v>2417</v>
       </c>
       <c r="GQ20" t="n">
-        <v>17631</v>
+        <v>775</v>
       </c>
       <c r="GR20" t="n">
-        <v>17422</v>
+        <v>4220</v>
       </c>
       <c r="GS20" t="n">
-        <v>9676</v>
+        <v>1640</v>
       </c>
       <c r="GT20" t="n">
-        <v>9226</v>
+        <v>3112</v>
       </c>
       <c r="GU20" t="n">
-        <v>10975</v>
+        <v>3828</v>
       </c>
       <c r="GV20" t="n">
-        <v>9899</v>
+        <v>4044</v>
       </c>
       <c r="GW20" t="n">
-        <v>9548</v>
+        <v>3109</v>
       </c>
       <c r="GX20" t="n">
-        <v>9464</v>
+        <v>4104</v>
       </c>
       <c r="GY20" t="n">
-        <v>9843</v>
+        <v>3426</v>
       </c>
       <c r="GZ20" t="n">
-        <v>8311</v>
+        <v>3783</v>
       </c>
       <c r="HA20" t="n">
-        <v>11890</v>
+        <v>3298</v>
       </c>
       <c r="HB20" t="n">
-        <v>8110</v>
+        <v>3507</v>
       </c>
       <c r="HC20" t="n">
-        <v>8720</v>
+        <v>2881</v>
       </c>
       <c r="HD20" t="n">
-        <v>8559</v>
+        <v>3761</v>
       </c>
       <c r="HE20" t="n">
-        <v>0</v>
+        <v>4635</v>
       </c>
       <c r="HF20" t="n">
-        <v>4104</v>
+        <v>2886</v>
       </c>
       <c r="HG20" t="n">
-        <v>12589</v>
+        <v>8642</v>
       </c>
       <c r="HH20" t="n">
-        <v>3653</v>
+        <v>5781</v>
       </c>
       <c r="HI20" t="n">
-        <v>2782</v>
+        <v>3508</v>
       </c>
       <c r="HJ20" t="n">
-        <v>1703</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14947</v>
+        <v>15012</v>
       </c>
       <c r="B21" t="n">
         <v>13643</v>
@@ -13576,13 +13576,13 @@
         <v>14332</v>
       </c>
       <c r="H21" t="n">
-        <v>13854</v>
+        <v>13776</v>
       </c>
       <c r="I21" t="n">
         <v>15215</v>
       </c>
       <c r="J21" t="n">
-        <v>12575</v>
+        <v>12640</v>
       </c>
       <c r="K21" t="n">
         <v>13976</v>
@@ -13591,19 +13591,19 @@
         <v>11091</v>
       </c>
       <c r="M21" t="n">
-        <v>12598</v>
+        <v>12663</v>
       </c>
       <c r="N21" t="n">
         <v>12991</v>
       </c>
       <c r="O21" t="n">
-        <v>12574</v>
+        <v>12639</v>
       </c>
       <c r="P21" t="n">
         <v>11798</v>
       </c>
       <c r="Q21" t="n">
-        <v>12518</v>
+        <v>12583</v>
       </c>
       <c r="R21" t="n">
         <v>12792</v>
@@ -13624,7 +13624,7 @@
         <v>12678</v>
       </c>
       <c r="X21" t="n">
-        <v>12700</v>
+        <v>12765</v>
       </c>
       <c r="Y21" t="n">
         <v>13721</v>
@@ -13633,13 +13633,13 @@
         <v>15593</v>
       </c>
       <c r="AA21" t="n">
-        <v>14918</v>
+        <v>13692</v>
       </c>
       <c r="AB21" t="n">
         <v>18158</v>
       </c>
       <c r="AC21" t="n">
-        <v>12177</v>
+        <v>12242</v>
       </c>
       <c r="AD21" t="n">
         <v>15334</v>
@@ -13660,7 +13660,7 @@
         <v>14155</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12765</v>
+        <v>12830</v>
       </c>
       <c r="AK21" t="n">
         <v>15562</v>
@@ -13690,7 +13690,7 @@
         <v>13767</v>
       </c>
       <c r="AT21" t="n">
-        <v>12765</v>
+        <v>12830</v>
       </c>
       <c r="AU21" t="n">
         <v>14863</v>
@@ -14074,7 +14074,7 @@
         <v>2664</v>
       </c>
       <c r="FR21" t="n">
-        <v>10884</v>
+        <v>10893</v>
       </c>
       <c r="FS21" t="n">
         <v>2911</v>
@@ -14137,76 +14137,76 @@
         <v>4783</v>
       </c>
       <c r="GM21" t="n">
-        <v>12765</v>
+        <v>10038</v>
       </c>
       <c r="GN21" t="n">
-        <v>12765</v>
+        <v>2506</v>
       </c>
       <c r="GO21" t="n">
-        <v>13917</v>
+        <v>3747</v>
       </c>
       <c r="GP21" t="n">
-        <v>15562</v>
+        <v>3460</v>
       </c>
       <c r="GQ21" t="n">
-        <v>14111</v>
+        <v>3453</v>
       </c>
       <c r="GR21" t="n">
-        <v>13902</v>
+        <v>7871</v>
       </c>
       <c r="GS21" t="n">
-        <v>6156</v>
+        <v>5291</v>
       </c>
       <c r="GT21" t="n">
-        <v>5706</v>
+        <v>2667</v>
       </c>
       <c r="GU21" t="n">
-        <v>7455</v>
+        <v>3301</v>
       </c>
       <c r="GV21" t="n">
-        <v>6379</v>
+        <v>3993</v>
       </c>
       <c r="GW21" t="n">
-        <v>6028</v>
+        <v>2664</v>
       </c>
       <c r="GX21" t="n">
-        <v>5944</v>
+        <v>0</v>
       </c>
       <c r="GY21" t="n">
-        <v>12566</v>
+        <v>6993</v>
       </c>
       <c r="GZ21" t="n">
-        <v>11962</v>
+        <v>3410</v>
       </c>
       <c r="HA21" t="n">
-        <v>15457</v>
+        <v>2853</v>
       </c>
       <c r="HB21" t="n">
-        <v>10833</v>
+        <v>2339</v>
       </c>
       <c r="HC21" t="n">
-        <v>12371</v>
+        <v>2850</v>
       </c>
       <c r="HD21" t="n">
-        <v>12210</v>
+        <v>3234</v>
       </c>
       <c r="HE21" t="n">
-        <v>3747</v>
+        <v>8202</v>
       </c>
       <c r="HF21" t="n">
-        <v>0</v>
+        <v>2893</v>
       </c>
       <c r="HG21" t="n">
-        <v>10999</v>
+        <v>11365</v>
       </c>
       <c r="HH21" t="n">
-        <v>3208</v>
+        <v>2239</v>
       </c>
       <c r="HI21" t="n">
-        <v>6349</v>
+        <v>4255</v>
       </c>
       <c r="HJ21" t="n">
-        <v>5354</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="22">
@@ -14256,7 +14256,7 @@
         <v>8862</v>
       </c>
       <c r="P22" t="n">
-        <v>8928</v>
+        <v>8901</v>
       </c>
       <c r="Q22" t="n">
         <v>8806</v>
@@ -14379,7 +14379,7 @@
         <v>7510</v>
       </c>
       <c r="BE22" t="n">
-        <v>10644</v>
+        <v>10568</v>
       </c>
       <c r="BF22" t="n">
         <v>6327</v>
@@ -14499,7 +14499,7 @@
         <v>7401</v>
       </c>
       <c r="CS22" t="n">
-        <v>6986</v>
+        <v>6807</v>
       </c>
       <c r="CT22" t="n">
         <v>7743</v>
@@ -14661,58 +14661,58 @@
         <v>5817</v>
       </c>
       <c r="EU22" t="n">
-        <v>15085</v>
+        <v>15082</v>
       </c>
       <c r="EV22" t="n">
-        <v>17306</v>
+        <v>17303</v>
       </c>
       <c r="EW22" t="n">
-        <v>17182</v>
+        <v>17179</v>
       </c>
       <c r="EX22" t="n">
-        <v>16781</v>
+        <v>16778</v>
       </c>
       <c r="EY22" t="n">
-        <v>18003</v>
+        <v>18000</v>
       </c>
       <c r="EZ22" t="n">
-        <v>17684</v>
+        <v>17681</v>
       </c>
       <c r="FA22" t="n">
-        <v>15199</v>
+        <v>15196</v>
       </c>
       <c r="FB22" t="n">
-        <v>15085</v>
+        <v>15082</v>
       </c>
       <c r="FC22" t="n">
-        <v>17044</v>
+        <v>17041</v>
       </c>
       <c r="FD22" t="n">
         <v>14369</v>
       </c>
       <c r="FE22" t="n">
-        <v>17044</v>
+        <v>17041</v>
       </c>
       <c r="FF22" t="n">
-        <v>19737</v>
+        <v>19734</v>
       </c>
       <c r="FG22" t="n">
-        <v>15085</v>
+        <v>15082</v>
       </c>
       <c r="FH22" t="n">
         <v>12980</v>
       </c>
       <c r="FI22" t="n">
-        <v>17044</v>
+        <v>17041</v>
       </c>
       <c r="FJ22" t="n">
-        <v>15085</v>
+        <v>15082</v>
       </c>
       <c r="FK22" t="n">
-        <v>19737</v>
+        <v>19734</v>
       </c>
       <c r="FL22" t="n">
-        <v>17044</v>
+        <v>17041</v>
       </c>
       <c r="FM22" t="n">
         <v>9294</v>
@@ -14730,7 +14730,7 @@
         <v>11538</v>
       </c>
       <c r="FR22" t="n">
-        <v>11995</v>
+        <v>11991</v>
       </c>
       <c r="FS22" t="n">
         <v>9622</v>
@@ -14793,76 +14793,76 @@
         <v>11870</v>
       </c>
       <c r="GM22" t="n">
-        <v>9041</v>
+        <v>3685</v>
       </c>
       <c r="GN22" t="n">
-        <v>9041</v>
+        <v>12903</v>
       </c>
       <c r="GO22" t="n">
-        <v>10752</v>
+        <v>12621</v>
       </c>
       <c r="GP22" t="n">
-        <v>11876</v>
+        <v>12334</v>
       </c>
       <c r="GQ22" t="n">
-        <v>9849</v>
+        <v>12327</v>
       </c>
       <c r="GR22" t="n">
-        <v>9640</v>
+        <v>8773</v>
       </c>
       <c r="GS22" t="n">
-        <v>7306</v>
+        <v>11966</v>
       </c>
       <c r="GT22" t="n">
-        <v>6856</v>
+        <v>11541</v>
       </c>
       <c r="GU22" t="n">
-        <v>6775</v>
+        <v>12175</v>
       </c>
       <c r="GV22" t="n">
-        <v>7529</v>
+        <v>12092</v>
       </c>
       <c r="GW22" t="n">
-        <v>7178</v>
+        <v>11538</v>
       </c>
       <c r="GX22" t="n">
-        <v>7094</v>
+        <v>12508</v>
       </c>
       <c r="GY22" t="n">
-        <v>6180</v>
+        <v>14646</v>
       </c>
       <c r="GZ22" t="n">
-        <v>7039</v>
+        <v>12284</v>
       </c>
       <c r="HA22" t="n">
-        <v>6541</v>
+        <v>11727</v>
       </c>
       <c r="HB22" t="n">
-        <v>5844</v>
+        <v>11490</v>
       </c>
       <c r="HC22" t="n">
-        <v>7519</v>
+        <v>11724</v>
       </c>
       <c r="HD22" t="n">
-        <v>6846</v>
+        <v>12108</v>
       </c>
       <c r="HE22" t="n">
-        <v>12621</v>
+        <v>16611</v>
       </c>
       <c r="HF22" t="n">
-        <v>12508</v>
+        <v>11767</v>
       </c>
       <c r="HG22" t="n">
-        <v>0</v>
+        <v>5927</v>
       </c>
       <c r="HH22" t="n">
-        <v>12082</v>
+        <v>10089</v>
       </c>
       <c r="HI22" t="n">
-        <v>14002</v>
+        <v>12047</v>
       </c>
       <c r="HJ22" t="n">
-        <v>12029</v>
+        <v>12477</v>
       </c>
     </row>
     <row r="23">
@@ -14888,7 +14888,7 @@
         <v>14646</v>
       </c>
       <c r="H23" t="n">
-        <v>14168</v>
+        <v>14090</v>
       </c>
       <c r="I23" t="n">
         <v>15529</v>
@@ -14945,7 +14945,7 @@
         <v>15907</v>
       </c>
       <c r="AA23" t="n">
-        <v>15232</v>
+        <v>14006</v>
       </c>
       <c r="AB23" t="n">
         <v>18472</v>
@@ -15386,7 +15386,7 @@
         <v>2964</v>
       </c>
       <c r="FR23" t="n">
-        <v>11184</v>
+        <v>11193</v>
       </c>
       <c r="FS23" t="n">
         <v>3225</v>
@@ -15449,76 +15449,76 @@
         <v>5083</v>
       </c>
       <c r="GM23" t="n">
-        <v>13144</v>
+        <v>10352</v>
       </c>
       <c r="GN23" t="n">
-        <v>13144</v>
+        <v>2722</v>
       </c>
       <c r="GO23" t="n">
-        <v>14231</v>
+        <v>4047</v>
       </c>
       <c r="GP23" t="n">
-        <v>15876</v>
+        <v>3760</v>
       </c>
       <c r="GQ23" t="n">
-        <v>14425</v>
+        <v>3753</v>
       </c>
       <c r="GR23" t="n">
-        <v>14216</v>
+        <v>8171</v>
       </c>
       <c r="GS23" t="n">
-        <v>6470</v>
+        <v>5591</v>
       </c>
       <c r="GT23" t="n">
-        <v>6020</v>
+        <v>2967</v>
       </c>
       <c r="GU23" t="n">
-        <v>7769</v>
+        <v>3601</v>
       </c>
       <c r="GV23" t="n">
-        <v>6693</v>
+        <v>4293</v>
       </c>
       <c r="GW23" t="n">
-        <v>6342</v>
+        <v>2964</v>
       </c>
       <c r="GX23" t="n">
-        <v>6258</v>
+        <v>868</v>
       </c>
       <c r="GY23" t="n">
-        <v>12866</v>
+        <v>7293</v>
       </c>
       <c r="GZ23" t="n">
-        <v>12262</v>
+        <v>3710</v>
       </c>
       <c r="HA23" t="n">
-        <v>15757</v>
+        <v>3153</v>
       </c>
       <c r="HB23" t="n">
-        <v>11133</v>
+        <v>2639</v>
       </c>
       <c r="HC23" t="n">
-        <v>12671</v>
+        <v>3150</v>
       </c>
       <c r="HD23" t="n">
-        <v>12510</v>
+        <v>3534</v>
       </c>
       <c r="HE23" t="n">
-        <v>4047</v>
+        <v>8502</v>
       </c>
       <c r="HF23" t="n">
-        <v>868</v>
+        <v>3193</v>
       </c>
       <c r="HG23" t="n">
-        <v>11313</v>
+        <v>11665</v>
       </c>
       <c r="HH23" t="n">
-        <v>0</v>
+        <v>2539</v>
       </c>
       <c r="HI23" t="n">
-        <v>6649</v>
+        <v>4555</v>
       </c>
       <c r="HJ23" t="n">
-        <v>5654</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="24">
@@ -15544,7 +15544,7 @@
         <v>17516</v>
       </c>
       <c r="H24" t="n">
-        <v>17038</v>
+        <v>16960</v>
       </c>
       <c r="I24" t="n">
         <v>18399</v>
@@ -15601,7 +15601,7 @@
         <v>18777</v>
       </c>
       <c r="AA24" t="n">
-        <v>18102</v>
+        <v>16876</v>
       </c>
       <c r="AB24" t="n">
         <v>21342</v>
@@ -15946,7 +15946,7 @@
         <v>9141</v>
       </c>
       <c r="EL24" t="n">
-        <v>12154</v>
+        <v>12189</v>
       </c>
       <c r="EM24" t="n">
         <v>12386</v>
@@ -16042,7 +16042,7 @@
         <v>2773</v>
       </c>
       <c r="FR24" t="n">
-        <v>6928</v>
+        <v>6937</v>
       </c>
       <c r="FS24" t="n">
         <v>6095</v>
@@ -16057,7 +16057,7 @@
         <v>3331</v>
       </c>
       <c r="FW24" t="n">
-        <v>2790</v>
+        <v>2612</v>
       </c>
       <c r="FX24" t="n">
         <v>3867</v>
@@ -16102,79 +16102,79 @@
         <v>2628</v>
       </c>
       <c r="GL24" t="n">
-        <v>2817</v>
+        <v>2828</v>
       </c>
       <c r="GM24" t="n">
-        <v>16014</v>
+        <v>13222</v>
       </c>
       <c r="GN24" t="n">
-        <v>16014</v>
+        <v>4066</v>
       </c>
       <c r="GO24" t="n">
-        <v>17101</v>
+        <v>3911</v>
       </c>
       <c r="GP24" t="n">
-        <v>18746</v>
+        <v>2081</v>
       </c>
       <c r="GQ24" t="n">
-        <v>17295</v>
+        <v>3617</v>
       </c>
       <c r="GR24" t="n">
-        <v>17086</v>
+        <v>4968</v>
       </c>
       <c r="GS24" t="n">
-        <v>9340</v>
+        <v>2345</v>
       </c>
       <c r="GT24" t="n">
-        <v>8890</v>
+        <v>2776</v>
       </c>
       <c r="GU24" t="n">
-        <v>10639</v>
+        <v>3492</v>
       </c>
       <c r="GV24" t="n">
-        <v>9563</v>
+        <v>5237</v>
       </c>
       <c r="GW24" t="n">
-        <v>9212</v>
+        <v>2773</v>
       </c>
       <c r="GX24" t="n">
-        <v>9128</v>
+        <v>3768</v>
       </c>
       <c r="GY24" t="n">
-        <v>11839</v>
+        <v>3037</v>
       </c>
       <c r="GZ24" t="n">
-        <v>12081</v>
+        <v>3447</v>
       </c>
       <c r="HA24" t="n">
-        <v>11501</v>
+        <v>2962</v>
       </c>
       <c r="HB24" t="n">
-        <v>8858</v>
+        <v>3171</v>
       </c>
       <c r="HC24" t="n">
-        <v>11378</v>
+        <v>2545</v>
       </c>
       <c r="HD24" t="n">
-        <v>9307</v>
+        <v>3425</v>
       </c>
       <c r="HE24" t="n">
-        <v>3911</v>
+        <v>4246</v>
       </c>
       <c r="HF24" t="n">
-        <v>3768</v>
+        <v>2550</v>
       </c>
       <c r="HG24" t="n">
-        <v>14183</v>
+        <v>9390</v>
       </c>
       <c r="HH24" t="n">
-        <v>3317</v>
+        <v>5445</v>
       </c>
       <c r="HI24" t="n">
-        <v>0</v>
+        <v>4256</v>
       </c>
       <c r="HJ24" t="n">
-        <v>2230</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="25">
@@ -16182,25 +16182,25 @@
         <v>19275</v>
       </c>
       <c r="B25" t="n">
-        <v>17905</v>
+        <v>17906</v>
       </c>
       <c r="C25" t="n">
         <v>18221</v>
       </c>
       <c r="D25" t="n">
-        <v>17905</v>
+        <v>17906</v>
       </c>
       <c r="E25" t="n">
         <v>16941</v>
       </c>
       <c r="F25" t="n">
-        <v>17744</v>
+        <v>17745</v>
       </c>
       <c r="G25" t="n">
         <v>18595</v>
       </c>
       <c r="H25" t="n">
-        <v>18116</v>
+        <v>18039</v>
       </c>
       <c r="I25" t="n">
         <v>19478</v>
@@ -16257,7 +16257,7 @@
         <v>19856</v>
       </c>
       <c r="AA25" t="n">
-        <v>19181</v>
+        <v>17955</v>
       </c>
       <c r="AB25" t="n">
         <v>22421</v>
@@ -16290,13 +16290,13 @@
         <v>19825</v>
       </c>
       <c r="AL25" t="n">
-        <v>18179</v>
+        <v>18180</v>
       </c>
       <c r="AM25" t="n">
         <v>19126</v>
       </c>
       <c r="AN25" t="n">
-        <v>18179</v>
+        <v>18180</v>
       </c>
       <c r="AO25" t="n">
         <v>18671</v>
@@ -16311,7 +16311,7 @@
         <v>18042</v>
       </c>
       <c r="AS25" t="n">
-        <v>18029</v>
+        <v>18030</v>
       </c>
       <c r="AT25" t="n">
         <v>17093</v>
@@ -16320,7 +16320,7 @@
         <v>19126</v>
       </c>
       <c r="AV25" t="n">
-        <v>18004</v>
+        <v>18005</v>
       </c>
       <c r="AW25" t="n">
         <v>17208</v>
@@ -16542,7 +16542,7 @@
         <v>11857</v>
       </c>
       <c r="DR25" t="n">
-        <v>11345</v>
+        <v>8397</v>
       </c>
       <c r="DS25" t="n">
         <v>7443</v>
@@ -16698,7 +16698,7 @@
         <v>3852</v>
       </c>
       <c r="FR25" t="n">
-        <v>7072</v>
+        <v>7081</v>
       </c>
       <c r="FS25" t="n">
         <v>7174</v>
@@ -16713,7 +16713,7 @@
         <v>4410</v>
       </c>
       <c r="FW25" t="n">
-        <v>3869</v>
+        <v>3691</v>
       </c>
       <c r="FX25" t="n">
         <v>1894</v>
@@ -16722,7 +16722,7 @@
         <v>3831</v>
       </c>
       <c r="FZ25" t="n">
-        <v>2387</v>
+        <v>2403</v>
       </c>
       <c r="GA25" t="n">
         <v>4067</v>
@@ -16758,79 +16758,79 @@
         <v>956</v>
       </c>
       <c r="GL25" t="n">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="GM25" t="n">
-        <v>17093</v>
+        <v>10704</v>
       </c>
       <c r="GN25" t="n">
-        <v>17093</v>
+        <v>5145</v>
       </c>
       <c r="GO25" t="n">
-        <v>18179</v>
+        <v>2403</v>
       </c>
       <c r="GP25" t="n">
-        <v>19825</v>
+        <v>3160</v>
       </c>
       <c r="GQ25" t="n">
-        <v>18374</v>
+        <v>2088</v>
       </c>
       <c r="GR25" t="n">
-        <v>18165</v>
+        <v>3296</v>
       </c>
       <c r="GS25" t="n">
-        <v>10419</v>
+        <v>467</v>
       </c>
       <c r="GT25" t="n">
-        <v>9969</v>
+        <v>3855</v>
       </c>
       <c r="GU25" t="n">
-        <v>11718</v>
+        <v>4571</v>
       </c>
       <c r="GV25" t="n">
-        <v>10642</v>
+        <v>3120</v>
       </c>
       <c r="GW25" t="n">
-        <v>10291</v>
+        <v>3852</v>
       </c>
       <c r="GX25" t="n">
-        <v>10207</v>
+        <v>4847</v>
       </c>
       <c r="GY25" t="n">
-        <v>8919</v>
+        <v>3181</v>
       </c>
       <c r="GZ25" t="n">
-        <v>7387</v>
+        <v>4526</v>
       </c>
       <c r="HA25" t="n">
-        <v>8635</v>
+        <v>4041</v>
       </c>
       <c r="HB25" t="n">
-        <v>7186</v>
+        <v>4250</v>
       </c>
       <c r="HC25" t="n">
-        <v>7796</v>
+        <v>3624</v>
       </c>
       <c r="HD25" t="n">
-        <v>7635</v>
+        <v>4504</v>
       </c>
       <c r="HE25" t="n">
-        <v>2387</v>
+        <v>4390</v>
       </c>
       <c r="HF25" t="n">
-        <v>4847</v>
+        <v>3629</v>
       </c>
       <c r="HG25" t="n">
-        <v>11665</v>
+        <v>7718</v>
       </c>
       <c r="HH25" t="n">
-        <v>4396</v>
+        <v>6524</v>
       </c>
       <c r="HI25" t="n">
-        <v>2537</v>
+        <v>2584</v>
       </c>
       <c r="HJ25" t="n">
-        <v>0</v>
+        <v>2252</v>
       </c>
     </row>
   </sheetData>
